--- a/ar6/IPCC_AR6_model_registration_REMIND-EDGET.xlsx
+++ b/ar6/IPCC_AR6_model_registration_REMIND-EDGET.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1015">
   <si>
     <t xml:space="preserve">General Instructions</t>
   </si>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t xml:space="preserve">REMIND-MAgPIE 2.0-4.1</t>
+    <t xml:space="preserve">REMIND-EDGET 2.1</t>
   </si>
   <si>
     <t xml:space="preserve">luderer</t>
@@ -2362,9 +2362,6 @@
   </si>
   <si>
     <t xml:space="preserve">Answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMIND-EDGET 2.1</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.1</t>
@@ -3387,12 +3384,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3444,6 +3435,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3625,20 +3622,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3654,11 +3651,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3683,7 +3680,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3718,11 +3715,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3746,19 +3743,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3774,19 +3771,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3794,35 +3791,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3830,7 +3827,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3838,7 +3835,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3858,11 +3855,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3870,7 +3867,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3890,11 +3887,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3902,31 +3899,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3934,7 +3923,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3946,8 +3935,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -7033,14 +7022,15 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="24" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="24" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="23.71"/>
@@ -7277,14 +7267,14 @@
   </sheetPr>
   <dimension ref="A1:MQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP23" activeCellId="0" sqref="AP23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.42"/>
@@ -7311,7 +7301,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="35" width="37.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="35" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="35" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="35" width="62.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="45.6"/>
@@ -8198,13 +8188,13 @@
         <v>684</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="C3" s="46" t="n">
         <v>2.1</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E3" s="47" t="n">
         <v>2</v>
@@ -8213,28 +8203,28 @@
         <v>602</v>
       </c>
       <c r="G3" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="H3" s="46" t="s">
         <v>687</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="I3" s="46" t="s">
         <v>688</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="J3" s="47" t="s">
         <v>689</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="K3" s="47" t="s">
         <v>690</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="L3" s="47" t="s">
         <v>691</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="M3" s="48" t="s">
         <v>692</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="N3" s="49" t="s">
         <v>693</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>694</v>
       </c>
       <c r="O3" s="46" t="n">
         <v>2005</v>
@@ -8246,82 +8236,82 @@
         <v>5</v>
       </c>
       <c r="R3" s="47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S3" s="46" t="n">
         <v>12</v>
       </c>
       <c r="T3" s="50" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U3" s="46" t="n">
         <v>1</v>
       </c>
       <c r="V3" s="51" t="s">
+        <v>696</v>
+      </c>
+      <c r="W3" s="51" t="s">
         <v>697</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="X3" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="Y3" s="51" t="s">
         <v>699</v>
-      </c>
-      <c r="Y3" s="51" t="s">
-        <v>700</v>
       </c>
       <c r="Z3" s="46" t="n">
         <v>60</v>
       </c>
       <c r="AA3" s="50" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AB3" s="46" t="n">
         <v>30</v>
       </c>
       <c r="AC3" s="52" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD3" s="52" t="s">
         <v>702</v>
       </c>
-      <c r="AD3" s="52" t="s">
+      <c r="AE3" s="49" t="s">
         <v>703</v>
       </c>
-      <c r="AE3" s="49" t="s">
+      <c r="AF3" s="49" t="s">
         <v>704</v>
       </c>
-      <c r="AF3" s="49" t="s">
+      <c r="AG3" s="52" t="s">
         <v>705</v>
       </c>
-      <c r="AG3" s="52" t="s">
+      <c r="AH3" s="52" t="s">
         <v>706</v>
       </c>
-      <c r="AH3" s="52" t="s">
+      <c r="AI3" s="53" t="s">
         <v>707</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AJ3" s="51" t="s">
         <v>708</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AK3" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AL3" s="51" t="s">
         <v>710</v>
       </c>
-      <c r="AL3" s="51" t="s">
+      <c r="AM3" s="51" t="s">
+        <v>696</v>
+      </c>
+      <c r="AN3" s="54" t="s">
         <v>711</v>
       </c>
-      <c r="AM3" s="51" t="s">
-        <v>697</v>
-      </c>
-      <c r="AN3" s="54" t="s">
+      <c r="AO3" s="54" t="s">
         <v>712</v>
       </c>
-      <c r="AO3" s="54" t="s">
+      <c r="AP3" s="54" t="s">
         <v>713</v>
       </c>
-      <c r="AP3" s="54" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>714</v>
-      </c>
-      <c r="AQ3" s="54" t="s">
-        <v>715</v>
       </c>
       <c r="AR3" s="0"/>
       <c r="AS3" s="0"/>
@@ -8642,10 +8632,10 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="48" t="s">
+        <v>715</v>
+      </c>
+      <c r="N4" s="49" t="s">
         <v>716</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>717</v>
       </c>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
@@ -8653,70 +8643,70 @@
       <c r="R4" s="23"/>
       <c r="S4" s="23"/>
       <c r="T4" s="51" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U4" s="23"/>
       <c r="V4" s="51" t="s">
+        <v>718</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>718</v>
+      </c>
+      <c r="X4" s="51" t="s">
         <v>719</v>
       </c>
-      <c r="W4" s="51" t="s">
-        <v>719</v>
-      </c>
-      <c r="X4" s="51" t="s">
+      <c r="Y4" s="51" t="s">
         <v>720</v>
-      </c>
-      <c r="Y4" s="51" t="s">
-        <v>721</v>
       </c>
       <c r="Z4" s="23"/>
       <c r="AA4" s="53" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AB4" s="23"/>
       <c r="AC4" s="52" t="s">
+        <v>722</v>
+      </c>
+      <c r="AD4" s="53" t="s">
         <v>723</v>
       </c>
-      <c r="AD4" s="53" t="s">
+      <c r="AE4" s="49" t="s">
         <v>724</v>
       </c>
-      <c r="AE4" s="49" t="s">
+      <c r="AF4" s="49" t="s">
         <v>725</v>
       </c>
-      <c r="AF4" s="49" t="s">
+      <c r="AG4" s="49" t="s">
         <v>726</v>
       </c>
-      <c r="AG4" s="49" t="s">
+      <c r="AH4" s="51" t="s">
         <v>727</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AI4" s="53" t="s">
         <v>728</v>
       </c>
-      <c r="AI4" s="53" t="s">
+      <c r="AJ4" s="51" t="s">
         <v>729</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AK4" s="51" t="s">
         <v>730</v>
       </c>
-      <c r="AK4" s="51" t="s">
+      <c r="AL4" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AM4" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AN4" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="AN4" s="49" t="s">
+      <c r="AO4" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="AO4" s="49" t="s">
+      <c r="AP4" s="54" t="s">
         <v>735</v>
       </c>
-      <c r="AP4" s="54" t="s">
+      <c r="AQ4" s="49" t="s">
         <v>736</v>
-      </c>
-      <c r="AQ4" s="49" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8725,10 +8715,10 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="N5" s="49" t="s">
         <v>738</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>739</v>
       </c>
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
@@ -8736,70 +8726,70 @@
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="51" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="U5" s="23"/>
       <c r="V5" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="W5" s="51" t="s">
         <v>741</v>
       </c>
-      <c r="W5" s="51" t="s">
+      <c r="X5" s="51" t="s">
         <v>742</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="Y5" s="51" t="s">
         <v>743</v>
-      </c>
-      <c r="Y5" s="51" t="s">
-        <v>744</v>
       </c>
       <c r="Z5" s="23"/>
       <c r="AA5" s="53" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AB5" s="23"/>
       <c r="AC5" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD5" s="50" t="s">
         <v>746</v>
       </c>
-      <c r="AD5" s="50" t="s">
+      <c r="AE5" s="49" t="s">
         <v>747</v>
       </c>
-      <c r="AE5" s="49" t="s">
+      <c r="AF5" s="49" t="s">
         <v>748</v>
       </c>
-      <c r="AF5" s="49" t="s">
+      <c r="AG5" s="49" t="s">
         <v>749</v>
       </c>
-      <c r="AG5" s="49" t="s">
+      <c r="AH5" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="AI5" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="AH5" s="51" t="s">
-        <v>698</v>
-      </c>
-      <c r="AI5" s="53" t="s">
+      <c r="AJ5" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="AJ5" s="51" t="s">
+      <c r="AK5" s="51" t="s">
         <v>752</v>
       </c>
-      <c r="AK5" s="51" t="s">
+      <c r="AL5" s="51" t="s">
         <v>753</v>
       </c>
-      <c r="AL5" s="51" t="s">
+      <c r="AM5" s="51" t="s">
         <v>754</v>
       </c>
-      <c r="AM5" s="51" t="s">
+      <c r="AN5" s="54" t="s">
         <v>755</v>
       </c>
-      <c r="AN5" s="54" t="s">
+      <c r="AO5" s="49" t="s">
         <v>756</v>
-      </c>
-      <c r="AO5" s="49" t="s">
-        <v>757</v>
       </c>
       <c r="AP5" s="56" t="n">
         <v>0.05</v>
       </c>
       <c r="AQ5" s="49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8808,10 +8798,10 @@
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
       <c r="M6" s="48" t="s">
+        <v>758</v>
+      </c>
+      <c r="N6" s="49" t="s">
         <v>759</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>760</v>
       </c>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
@@ -8819,66 +8809,66 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="50" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="U6" s="23"/>
       <c r="V6" s="51" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W6" s="23"/>
       <c r="X6" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y6" s="51" t="s">
         <v>763</v>
-      </c>
-      <c r="Y6" s="51" t="s">
-        <v>764</v>
       </c>
       <c r="Z6" s="23"/>
       <c r="AA6" s="53" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AB6" s="23"/>
       <c r="AC6" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD6" s="57" t="s">
         <v>766</v>
       </c>
-      <c r="AD6" s="57" t="s">
+      <c r="AE6" s="49" t="s">
         <v>767</v>
       </c>
-      <c r="AE6" s="49" t="s">
+      <c r="AF6" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="AF6" s="49" t="s">
+      <c r="AG6" s="49" t="s">
         <v>769</v>
       </c>
-      <c r="AG6" s="49" t="s">
+      <c r="AH6" s="51" t="s">
+        <v>718</v>
+      </c>
+      <c r="AI6" s="53" t="s">
         <v>770</v>
       </c>
-      <c r="AH6" s="51" t="s">
-        <v>719</v>
-      </c>
-      <c r="AI6" s="53" t="s">
+      <c r="AJ6" s="51" t="s">
         <v>771</v>
       </c>
-      <c r="AJ6" s="51" t="s">
+      <c r="AK6" s="51" t="s">
         <v>772</v>
       </c>
-      <c r="AK6" s="51" t="s">
+      <c r="AL6" s="51" t="s">
         <v>773</v>
       </c>
-      <c r="AL6" s="51" t="s">
+      <c r="AM6" s="51" t="s">
         <v>774</v>
       </c>
-      <c r="AM6" s="51" t="s">
+      <c r="AN6" s="49" t="s">
         <v>775</v>
       </c>
-      <c r="AN6" s="49" t="s">
+      <c r="AO6" s="54" t="s">
         <v>776</v>
-      </c>
-      <c r="AO6" s="54" t="s">
-        <v>777</v>
       </c>
       <c r="AP6" s="58"/>
       <c r="AQ6" s="49" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8887,10 +8877,10 @@
       <c r="K7" s="34"/>
       <c r="L7" s="23"/>
       <c r="M7" s="48" t="s">
+        <v>778</v>
+      </c>
+      <c r="N7" s="49" t="s">
         <v>779</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>780</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -8898,64 +8888,64 @@
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="51" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="48"/>
       <c r="W7" s="23"/>
       <c r="X7" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y7" s="51" t="s">
         <v>782</v>
-      </c>
-      <c r="Y7" s="51" t="s">
-        <v>783</v>
       </c>
       <c r="Z7" s="23"/>
       <c r="AA7" s="53" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AB7" s="23"/>
       <c r="AC7" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="AD7" s="50" t="s">
         <v>785</v>
       </c>
-      <c r="AD7" s="50" t="s">
+      <c r="AE7" s="49" t="s">
         <v>786</v>
       </c>
-      <c r="AE7" s="49" t="s">
+      <c r="AF7" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="AF7" s="49" t="s">
+      <c r="AG7" s="49" t="s">
         <v>788</v>
       </c>
-      <c r="AG7" s="49" t="s">
+      <c r="AH7" s="51" t="s">
         <v>789</v>
       </c>
-      <c r="AH7" s="51" t="s">
+      <c r="AI7" s="53" t="s">
         <v>790</v>
       </c>
-      <c r="AI7" s="53" t="s">
+      <c r="AJ7" s="48" t="s">
         <v>791</v>
       </c>
-      <c r="AJ7" s="48" t="s">
+      <c r="AK7" s="51" t="s">
         <v>792</v>
       </c>
-      <c r="AK7" s="51" t="s">
+      <c r="AL7" s="51" t="s">
         <v>793</v>
       </c>
-      <c r="AL7" s="51" t="s">
+      <c r="AM7" s="51" t="s">
         <v>794</v>
       </c>
-      <c r="AM7" s="51" t="s">
+      <c r="AN7" s="54" t="s">
         <v>795</v>
       </c>
-      <c r="AN7" s="54" t="s">
+      <c r="AO7" s="58" t="s">
         <v>796</v>
-      </c>
-      <c r="AO7" s="58" t="s">
-        <v>797</v>
       </c>
       <c r="AP7" s="58"/>
       <c r="AQ7" s="49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8964,10 +8954,10 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="N8" s="49" t="s">
         <v>799</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>800</v>
       </c>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
@@ -8975,62 +8965,62 @@
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="51" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
       <c r="X8" s="51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Y8" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Z8" s="23"/>
       <c r="AA8" s="53" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AB8" s="23"/>
       <c r="AC8" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="AD8" s="57" t="s">
         <v>804</v>
       </c>
-      <c r="AD8" s="57" t="s">
+      <c r="AE8" s="49" t="s">
         <v>805</v>
       </c>
-      <c r="AE8" s="49" t="s">
+      <c r="AF8" s="49" t="s">
         <v>806</v>
       </c>
-      <c r="AF8" s="49" t="s">
+      <c r="AG8" s="49" t="s">
         <v>807</v>
       </c>
-      <c r="AG8" s="49" t="s">
+      <c r="AH8" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="AI8" s="53" t="s">
         <v>808</v>
-      </c>
-      <c r="AH8" s="48" t="s">
-        <v>697</v>
-      </c>
-      <c r="AI8" s="53" t="s">
-        <v>809</v>
       </c>
       <c r="AJ8" s="0"/>
       <c r="AK8" s="51" t="s">
+        <v>809</v>
+      </c>
+      <c r="AL8" s="51" t="s">
         <v>810</v>
       </c>
-      <c r="AL8" s="51" t="s">
+      <c r="AM8" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="AN8" s="49" t="s">
         <v>811</v>
       </c>
-      <c r="AM8" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="AN8" s="49" t="s">
+      <c r="AO8" s="58" t="s">
         <v>812</v>
-      </c>
-      <c r="AO8" s="58" t="s">
-        <v>813</v>
       </c>
       <c r="AP8" s="58"/>
       <c r="AQ8" s="49" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9039,7 +9029,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="48" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N9" s="48"/>
       <c r="O9" s="23"/>
@@ -9048,58 +9038,58 @@
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
       <c r="T9" s="51" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
       <c r="X9" s="51" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="53" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AB9" s="23"/>
       <c r="AC9" s="48" t="s">
+        <v>818</v>
+      </c>
+      <c r="AD9" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="AD9" s="57" t="s">
+      <c r="AE9" s="49" t="s">
         <v>820</v>
       </c>
-      <c r="AE9" s="49" t="s">
+      <c r="AF9" s="49" t="s">
         <v>821</v>
       </c>
-      <c r="AF9" s="49" t="s">
+      <c r="AG9" s="49" t="s">
         <v>822</v>
       </c>
-      <c r="AG9" s="49" t="s">
+      <c r="AH9" s="48" t="s">
         <v>823</v>
       </c>
-      <c r="AH9" s="48" t="s">
-        <v>824</v>
-      </c>
       <c r="AI9" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AJ9" s="0"/>
       <c r="AK9" s="51" t="s">
+        <v>824</v>
+      </c>
+      <c r="AL9" s="51" t="s">
         <v>825</v>
-      </c>
-      <c r="AL9" s="51" t="s">
-        <v>826</v>
       </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="49" t="s">
+        <v>826</v>
+      </c>
+      <c r="AO9" s="58" t="s">
         <v>827</v>
-      </c>
-      <c r="AO9" s="58" t="s">
-        <v>828</v>
       </c>
       <c r="AP9" s="58"/>
       <c r="AQ9" s="49" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9108,7 +9098,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="48" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -9116,54 +9106,54 @@
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="51" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
       <c r="X10" s="51" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="53" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AB10" s="23"/>
       <c r="AC10" s="48" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AD10" s="23"/>
       <c r="AE10" s="49" t="s">
+        <v>834</v>
+      </c>
+      <c r="AF10" s="49" t="s">
         <v>835</v>
       </c>
-      <c r="AF10" s="49" t="s">
+      <c r="AG10" s="49" t="s">
         <v>836</v>
       </c>
-      <c r="AG10" s="49" t="s">
+      <c r="AH10" s="52" t="s">
         <v>837</v>
-      </c>
-      <c r="AH10" s="52" t="s">
-        <v>838</v>
       </c>
       <c r="AI10" s="0"/>
       <c r="AJ10" s="0"/>
       <c r="AK10" s="51" t="s">
+        <v>838</v>
+      </c>
+      <c r="AL10" s="51" t="s">
         <v>839</v>
-      </c>
-      <c r="AL10" s="51" t="s">
-        <v>840</v>
       </c>
       <c r="AM10" s="23"/>
       <c r="AN10" s="54" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO10" s="58" t="s">
         <v>841</v>
-      </c>
-      <c r="AO10" s="58" t="s">
-        <v>842</v>
       </c>
       <c r="AP10" s="54"/>
       <c r="AQ10" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9172,7 +9162,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N11" s="59"/>
       <c r="O11" s="23"/>
@@ -9181,50 +9171,50 @@
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="51" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
       <c r="X11" s="51" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AB11" s="23"/>
       <c r="AC11" s="48" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AD11" s="23"/>
       <c r="AE11" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="AF11" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="AG11" s="48" t="s">
         <v>847</v>
       </c>
-      <c r="AF11" s="48" t="s">
-        <v>792</v>
-      </c>
-      <c r="AG11" s="48" t="s">
+      <c r="AH11" s="48" t="s">
         <v>848</v>
-      </c>
-      <c r="AH11" s="48" t="s">
-        <v>849</v>
       </c>
       <c r="AI11" s="0"/>
       <c r="AJ11" s="0"/>
       <c r="AK11" s="51" t="s">
+        <v>849</v>
+      </c>
+      <c r="AL11" s="51" t="s">
         <v>850</v>
-      </c>
-      <c r="AL11" s="51" t="s">
-        <v>851</v>
       </c>
       <c r="AM11" s="23"/>
       <c r="AN11" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="AO11" s="54" t="s">
         <v>852</v>
-      </c>
-      <c r="AO11" s="54" t="s">
-        <v>853</v>
       </c>
       <c r="AP11" s="58"/>
       <c r="AQ11" s="58"/>
@@ -9235,7 +9225,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="60" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="N12" s="59"/>
       <c r="O12" s="23"/>
@@ -9244,48 +9234,48 @@
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="50" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="51" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="53" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AB12" s="23"/>
       <c r="AC12" s="48" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AD12" s="0"/>
       <c r="AE12" s="49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF12" s="23"/>
       <c r="AG12" s="48" t="s">
+        <v>859</v>
+      </c>
+      <c r="AH12" s="48" t="s">
         <v>860</v>
-      </c>
-      <c r="AH12" s="48" t="s">
-        <v>861</v>
       </c>
       <c r="AI12" s="0"/>
       <c r="AJ12" s="0"/>
       <c r="AK12" s="51" t="s">
+        <v>861</v>
+      </c>
+      <c r="AL12" s="51" t="s">
         <v>862</v>
-      </c>
-      <c r="AL12" s="51" t="s">
-        <v>863</v>
       </c>
       <c r="AM12" s="23"/>
       <c r="AN12" s="54" t="s">
+        <v>863</v>
+      </c>
+      <c r="AO12" s="58" t="s">
         <v>864</v>
-      </c>
-      <c r="AO12" s="58" t="s">
-        <v>865</v>
       </c>
       <c r="AP12" s="58"/>
       <c r="AQ12" s="58"/>
@@ -9303,7 +9293,7 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="51" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
@@ -9312,37 +9302,37 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="53" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AB13" s="23"/>
       <c r="AC13" s="48" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AD13" s="0"/>
       <c r="AE13" s="49" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF13" s="23"/>
       <c r="AG13" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="AH13" s="48" t="s">
         <v>870</v>
-      </c>
-      <c r="AH13" s="48" t="s">
-        <v>871</v>
       </c>
       <c r="AI13" s="0"/>
       <c r="AJ13" s="0"/>
       <c r="AK13" s="51" t="s">
+        <v>871</v>
+      </c>
+      <c r="AL13" s="51" t="s">
         <v>872</v>
-      </c>
-      <c r="AL13" s="51" t="s">
-        <v>873</v>
       </c>
       <c r="AM13" s="23"/>
       <c r="AN13" s="49" t="s">
+        <v>873</v>
+      </c>
+      <c r="AO13" s="58" t="s">
         <v>874</v>
-      </c>
-      <c r="AO13" s="58" t="s">
-        <v>875</v>
       </c>
       <c r="AP13" s="58"/>
       <c r="AQ13" s="58"/>
@@ -9360,7 +9350,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
       <c r="T14" s="51" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
@@ -9369,37 +9359,37 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="53" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AB14" s="23"/>
       <c r="AC14" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD14" s="0"/>
       <c r="AE14" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF14" s="23"/>
       <c r="AG14" s="48" t="s">
+        <v>877</v>
+      </c>
+      <c r="AH14" s="48" t="s">
         <v>878</v>
-      </c>
-      <c r="AH14" s="48" t="s">
-        <v>879</v>
       </c>
       <c r="AI14" s="0"/>
       <c r="AJ14" s="0"/>
       <c r="AK14" s="51" t="s">
+        <v>879</v>
+      </c>
+      <c r="AL14" s="51" t="s">
         <v>880</v>
-      </c>
-      <c r="AL14" s="51" t="s">
-        <v>881</v>
       </c>
       <c r="AM14" s="23"/>
       <c r="AN14" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="AO14" s="58" t="s">
         <v>882</v>
-      </c>
-      <c r="AO14" s="58" t="s">
-        <v>883</v>
       </c>
       <c r="AP14" s="54"/>
       <c r="AQ14" s="54"/>
@@ -9417,7 +9407,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="50" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
@@ -9426,35 +9416,35 @@
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="53" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AB15" s="23"/>
       <c r="AC15" s="52" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AD15" s="0"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
       <c r="AG15" s="52" t="s">
+        <v>886</v>
+      </c>
+      <c r="AH15" s="48" t="s">
         <v>887</v>
-      </c>
-      <c r="AH15" s="48" t="s">
-        <v>888</v>
       </c>
       <c r="AI15" s="0"/>
       <c r="AJ15" s="0"/>
       <c r="AK15" s="51" t="s">
+        <v>888</v>
+      </c>
+      <c r="AL15" s="51" t="s">
         <v>889</v>
-      </c>
-      <c r="AL15" s="51" t="s">
-        <v>890</v>
       </c>
       <c r="AM15" s="23"/>
       <c r="AN15" s="49" t="s">
+        <v>890</v>
+      </c>
+      <c r="AO15" s="54" t="s">
         <v>891</v>
-      </c>
-      <c r="AO15" s="54" t="s">
-        <v>892</v>
       </c>
       <c r="AP15" s="58"/>
       <c r="AQ15" s="58"/>
@@ -9472,7 +9462,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
       <c r="T16" s="51" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
@@ -9481,35 +9471,35 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="53" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="48" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AD16" s="0"/>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="48" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AH16" s="48" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AI16" s="0"/>
       <c r="AJ16" s="0"/>
       <c r="AK16" s="51" t="s">
+        <v>896</v>
+      </c>
+      <c r="AL16" s="51" t="s">
         <v>897</v>
-      </c>
-      <c r="AL16" s="51" t="s">
-        <v>898</v>
       </c>
       <c r="AM16" s="23"/>
       <c r="AN16" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AO16" s="58" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AP16" s="58"/>
       <c r="AQ16" s="58"/>
@@ -9522,7 +9512,7 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
       <c r="T17" s="51" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
@@ -9531,33 +9521,33 @@
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="53" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AB17" s="23"/>
       <c r="AC17" s="48" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AD17" s="0"/>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="AH17" s="48" t="s">
         <v>903</v>
-      </c>
-      <c r="AH17" s="48" t="s">
-        <v>904</v>
       </c>
       <c r="AI17" s="0"/>
       <c r="AJ17" s="0"/>
       <c r="AK17" s="51" t="s">
+        <v>904</v>
+      </c>
+      <c r="AL17" s="51" t="s">
         <v>905</v>
-      </c>
-      <c r="AL17" s="51" t="s">
-        <v>906</v>
       </c>
       <c r="AM17" s="23"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="58" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AP17" s="54"/>
       <c r="AQ17" s="54"/>
@@ -9577,33 +9567,33 @@
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="53" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AB18" s="23"/>
       <c r="AC18" s="48" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AD18" s="0"/>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="48" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AH18" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AI18" s="0"/>
       <c r="AJ18" s="0"/>
       <c r="AK18" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="AL18" s="51" t="s">
         <v>911</v>
-      </c>
-      <c r="AL18" s="51" t="s">
-        <v>912</v>
       </c>
       <c r="AM18" s="23"/>
       <c r="AN18" s="23"/>
       <c r="AO18" s="54" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AP18" s="58"/>
       <c r="AQ18" s="58"/>
@@ -9623,31 +9613,31 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="53" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AB19" s="23"/>
       <c r="AC19" s="48" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AD19" s="0"/>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AH19" s="0"/>
       <c r="AI19" s="0"/>
       <c r="AJ19" s="0"/>
       <c r="AK19" s="51" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AL19" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AM19" s="23"/>
       <c r="AN19" s="23"/>
       <c r="AO19" s="58" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AP19" s="58"/>
       <c r="AQ19" s="58"/>
@@ -9667,11 +9657,11 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="53" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AB20" s="23"/>
       <c r="AC20" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD20" s="0"/>
       <c r="AE20" s="23"/>
@@ -9681,13 +9671,13 @@
       <c r="AI20" s="0"/>
       <c r="AJ20" s="0"/>
       <c r="AK20" s="51" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AL20" s="23"/>
       <c r="AM20" s="23"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="58" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AP20" s="48"/>
       <c r="AQ20" s="48"/>
@@ -9707,11 +9697,11 @@
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="53" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AB21" s="23"/>
       <c r="AC21" s="52" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AD21" s="0"/>
       <c r="AE21" s="23"/>
@@ -9721,22 +9711,22 @@
       <c r="AI21" s="0"/>
       <c r="AJ21" s="0"/>
       <c r="AK21" s="51" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AL21" s="23"/>
       <c r="AM21" s="23"/>
       <c r="AN21" s="23"/>
       <c r="AO21" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AA22" s="53" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AB22" s="23"/>
       <c r="AC22" s="48" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AD22" s="0"/>
       <c r="AE22" s="23"/>
@@ -9746,7 +9736,7 @@
       <c r="AI22" s="0"/>
       <c r="AJ22" s="0"/>
       <c r="AK22" s="51" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
@@ -9756,11 +9746,11 @@
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N23" s="59"/>
       <c r="AA23" s="53" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB23" s="23"/>
       <c r="AC23" s="48" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AD23" s="0"/>
       <c r="AE23" s="23"/>
@@ -9770,7 +9760,7 @@
       <c r="AI23" s="0"/>
       <c r="AJ23" s="0"/>
       <c r="AK23" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AL23" s="23"/>
       <c r="AM23" s="23"/>
@@ -9779,11 +9769,11 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA24" s="61" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AB24" s="23"/>
       <c r="AC24" s="48" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AD24" s="0"/>
       <c r="AE24" s="23"/>
@@ -9793,7 +9783,7 @@
       <c r="AI24" s="0"/>
       <c r="AJ24" s="0"/>
       <c r="AK24" s="51" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AL24" s="23"/>
       <c r="AM24" s="23"/>
@@ -9802,11 +9792,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA25" s="49" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AB25" s="23"/>
       <c r="AC25" s="48" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AD25" s="0"/>
       <c r="AE25" s="23"/>
@@ -9816,7 +9806,7 @@
       <c r="AI25" s="0"/>
       <c r="AJ25" s="0"/>
       <c r="AK25" s="51" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AL25" s="23"/>
       <c r="AM25" s="23"/>
@@ -9825,11 +9815,11 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA26" s="49" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AB26" s="23"/>
       <c r="AC26" s="48" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AD26" s="0"/>
       <c r="AE26" s="23"/>
@@ -9839,7 +9829,7 @@
       <c r="AI26" s="0"/>
       <c r="AJ26" s="0"/>
       <c r="AK26" s="51" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
@@ -9848,11 +9838,11 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA27" s="49" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AB27" s="23"/>
       <c r="AC27" s="48" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AD27" s="0"/>
       <c r="AE27" s="23"/>
@@ -9862,7 +9852,7 @@
       <c r="AI27" s="0"/>
       <c r="AJ27" s="0"/>
       <c r="AK27" s="51" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AL27" s="23"/>
       <c r="AM27" s="23"/>
@@ -9871,11 +9861,11 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA28" s="49" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AB28" s="23"/>
       <c r="AC28" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD28" s="0"/>
       <c r="AE28" s="23"/>
@@ -9885,7 +9875,7 @@
       <c r="AI28" s="0"/>
       <c r="AJ28" s="0"/>
       <c r="AK28" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AL28" s="23"/>
       <c r="AM28" s="23"/>
@@ -9894,11 +9884,11 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA29" s="49" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AB29" s="23"/>
       <c r="AC29" s="52" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AD29" s="0"/>
       <c r="AE29" s="23"/>
@@ -9908,7 +9898,7 @@
       <c r="AI29" s="0"/>
       <c r="AJ29" s="0"/>
       <c r="AK29" s="51" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AL29" s="23"/>
       <c r="AM29" s="23"/>
@@ -9917,11 +9907,11 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA30" s="49" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AB30" s="23"/>
       <c r="AC30" s="48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AD30" s="0"/>
       <c r="AE30" s="23"/>
@@ -9931,7 +9921,7 @@
       <c r="AI30" s="0"/>
       <c r="AJ30" s="0"/>
       <c r="AK30" s="51" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
@@ -9940,11 +9930,11 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA31" s="49" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AB31" s="23"/>
       <c r="AC31" s="48" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AD31" s="0"/>
       <c r="AE31" s="23"/>
@@ -9954,7 +9944,7 @@
       <c r="AI31" s="0"/>
       <c r="AJ31" s="0"/>
       <c r="AK31" s="51" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AL31" s="23"/>
       <c r="AM31" s="23"/>
@@ -9963,11 +9953,11 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA32" s="49" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AB32" s="23"/>
       <c r="AC32" s="48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AD32" s="0"/>
       <c r="AE32" s="23"/>
@@ -9977,7 +9967,7 @@
       <c r="AI32" s="0"/>
       <c r="AJ32" s="0"/>
       <c r="AK32" s="51" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
@@ -9986,11 +9976,11 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA33" s="49" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AB33" s="23"/>
       <c r="AC33" s="48" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AD33" s="0"/>
       <c r="AE33" s="23"/>
@@ -10000,16 +9990,16 @@
       <c r="AI33" s="0"/>
       <c r="AJ33" s="0"/>
       <c r="AK33" s="51" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA34" s="49" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AB34" s="23"/>
       <c r="AC34" s="48" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AD34" s="0"/>
       <c r="AE34" s="23"/>
@@ -10019,16 +10009,16 @@
       <c r="AI34" s="0"/>
       <c r="AJ34" s="0"/>
       <c r="AK34" s="51" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA35" s="49" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AB35" s="23"/>
       <c r="AC35" s="48" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AD35" s="0"/>
       <c r="AE35" s="23"/>
@@ -10038,16 +10028,16 @@
       <c r="AI35" s="0"/>
       <c r="AJ35" s="0"/>
       <c r="AK35" s="51" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA36" s="53" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB36" s="23"/>
       <c r="AC36" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD36" s="0"/>
       <c r="AE36" s="23"/>
@@ -10057,12 +10047,12 @@
       <c r="AI36" s="0"/>
       <c r="AJ36" s="0"/>
       <c r="AK36" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA37" s="61" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AB37" s="23"/>
       <c r="AC37" s="0"/>
@@ -10077,7 +10067,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA38" s="48" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AB38" s="23"/>
       <c r="AC38" s="0"/>
@@ -10092,7 +10082,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA39" s="48" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AB39" s="23"/>
       <c r="AC39" s="0"/>
@@ -10107,7 +10097,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA40" s="48" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AB40" s="23"/>
       <c r="AC40" s="0"/>
@@ -10122,7 +10112,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA41" s="48" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AB41" s="23"/>
       <c r="AC41" s="0"/>
@@ -10137,7 +10127,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA42" s="48" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AB42" s="23"/>
       <c r="AC42" s="0"/>
@@ -10152,7 +10142,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA43" s="48" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AB43" s="23"/>
       <c r="AC43" s="0"/>
@@ -10167,7 +10157,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA44" s="48" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AB44" s="23"/>
       <c r="AC44" s="0"/>
@@ -10182,7 +10172,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA45" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AB45" s="23"/>
       <c r="AC45" s="0"/>
@@ -10197,7 +10187,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA46" s="52" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AB46" s="23"/>
       <c r="AC46" s="0"/>
@@ -10212,7 +10202,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA47" s="48" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AB47" s="23"/>
       <c r="AC47" s="0"/>
@@ -10227,7 +10217,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA48" s="48" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AB48" s="23"/>
       <c r="AC48" s="0"/>
@@ -10242,7 +10232,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA49" s="48" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AB49" s="23"/>
       <c r="AC49" s="0"/>
@@ -10256,7 +10246,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA50" s="48" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AB50" s="23"/>
       <c r="AC50" s="0"/>
@@ -10270,7 +10260,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA51" s="48" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AB51" s="23"/>
       <c r="AC51" s="0"/>
@@ -10284,7 +10274,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA52" s="48" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AB52" s="23"/>
       <c r="AC52" s="0"/>
@@ -10298,7 +10288,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA53" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AB53" s="23"/>
       <c r="AC53" s="0"/>
@@ -10312,7 +10302,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA54" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AB54" s="23"/>
       <c r="AC54" s="0"/>
@@ -10326,7 +10316,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA55" s="53" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AB55" s="23"/>
       <c r="AC55" s="0"/>
@@ -10340,7 +10330,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA56" s="53" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AB56" s="23"/>
       <c r="AC56" s="0"/>
@@ -10354,7 +10344,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA57" s="53" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AB57" s="23"/>
       <c r="AC57" s="0"/>
@@ -10368,7 +10358,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA58" s="53" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AB58" s="23"/>
       <c r="AC58" s="0"/>
@@ -10382,7 +10372,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA59" s="48" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AB59" s="23"/>
       <c r="AC59" s="0"/>
@@ -10396,7 +10386,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA60" s="48" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AB60" s="23"/>
       <c r="AC60" s="0"/>
@@ -10410,7 +10400,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA61" s="48" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AB61" s="23"/>
       <c r="AC61" s="0"/>
@@ -10424,7 +10414,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA62" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AB62" s="23"/>
       <c r="AC62" s="0"/>
@@ -11544,84 +11534,84 @@
         <v>581</v>
       </c>
       <c r="B1" s="65" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>988</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B2" s="63" t="s">
+        <v>989</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>990</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B3" s="63" t="s">
+        <v>991</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>992</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B4" s="63" t="s">
         <v>288</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>310</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B6" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>996</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B7" s="63" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>998</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>33</v>
@@ -11629,57 +11619,57 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>1001</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B10" s="63" t="s">
         <v>546</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B11" s="63" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>1004</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B12" s="63" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>1006</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B13" s="63" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>1008</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -11715,7 +11705,7 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="67" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -11725,18 +11715,18 @@
         <v>581</v>
       </c>
       <c r="B2" s="68" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>1011</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>38</v>
@@ -11744,10 +11734,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>38</v>
@@ -11755,10 +11745,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>35</v>
@@ -11766,7 +11756,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>288</v>
@@ -11777,10 +11767,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C7" s="66" t="s">
         <v>35</v>
@@ -11788,10 +11778,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>29</v>
@@ -11799,7 +11789,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B9" s="63" t="s">
         <v>310</v>
@@ -11810,7 +11800,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B10" s="63" t="s">
         <v>546</v>
@@ -11821,10 +11811,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C11" s="66" t="s">
         <v>29</v>
@@ -11832,10 +11822,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>29</v>
@@ -11843,10 +11833,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C13" s="66" t="s">
         <v>41</v>
@@ -11854,10 +11844,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>32</v>
@@ -11865,7 +11855,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>546</v>
@@ -11876,10 +11866,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>80</v>
@@ -11887,10 +11877,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>168</v>
@@ -11898,7 +11888,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B18" s="63" t="s">
         <v>288</v>
@@ -11909,10 +11899,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C19" s="66" t="s">
         <v>458</v>
@@ -11920,7 +11910,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B20" s="63" t="s">
         <v>310</v>
@@ -11931,10 +11921,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>60</v>
@@ -11942,10 +11932,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C22" s="66" t="s">
         <v>52</v>
@@ -11953,7 +11943,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B23" s="63" t="s">
         <v>288</v>
@@ -11964,7 +11954,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B24" s="63" t="s">
         <v>310</v>
@@ -11975,10 +11965,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C25" s="66" t="s">
         <v>75</v>
@@ -11986,10 +11976,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C26" s="66" t="s">
         <v>72</v>
@@ -11997,10 +11987,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>58</v>
@@ -12008,10 +11998,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>69</v>
@@ -12019,7 +12009,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B29" s="63" t="s">
         <v>546</v>
@@ -12030,10 +12020,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C30" s="66" t="s">
         <v>66</v>
@@ -12041,10 +12031,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>77</v>
@@ -12052,10 +12042,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="62" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C32" s="66" t="s">
         <v>77</v>
@@ -12091,32 +12081,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="63" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="70" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="65" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B1" s="65" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="A2" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="0" t="s">
         <v>82</v>
       </c>
@@ -12124,14 +12111,14 @@
         <v>83</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B3" s="72"/>
+      <c r="A3" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="70"/>
       <c r="C3" s="0" t="s">
         <v>84</v>
       </c>
@@ -12139,14 +12126,14 @@
         <v>85</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="72"/>
+      <c r="A4" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="70"/>
       <c r="C4" s="0" t="s">
         <v>86</v>
       </c>
@@ -12154,14 +12141,14 @@
         <v>87</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B5" s="72"/>
+      <c r="A5" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B5" s="70"/>
       <c r="C5" s="0" t="s">
         <v>88</v>
       </c>
@@ -12169,14 +12156,14 @@
         <v>89</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B6" s="72"/>
+      <c r="A6" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B6" s="70"/>
       <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
@@ -12184,14 +12171,14 @@
         <v>91</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B7" s="72"/>
+      <c r="A7" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="70"/>
       <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
@@ -12199,14 +12186,14 @@
         <v>93</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="72"/>
+      <c r="A8" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="70"/>
       <c r="C8" s="0" t="s">
         <v>94</v>
       </c>
@@ -12214,14 +12201,14 @@
         <v>95</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B9" s="72"/>
+      <c r="A9" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B9" s="70"/>
       <c r="C9" s="0" t="s">
         <v>96</v>
       </c>
@@ -12230,10 +12217,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B10" s="72"/>
+      <c r="A10" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B10" s="70"/>
       <c r="C10" s="0" t="s">
         <v>98</v>
       </c>
@@ -12241,14 +12228,14 @@
         <v>99</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B11" s="72"/>
+      <c r="A11" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B11" s="70"/>
       <c r="C11" s="0" t="s">
         <v>100</v>
       </c>
@@ -12256,14 +12243,14 @@
         <v>101</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="72"/>
+      <c r="A12" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B12" s="70"/>
       <c r="C12" s="0" t="s">
         <v>102</v>
       </c>
@@ -12271,14 +12258,14 @@
         <v>103</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B13" s="72"/>
+      <c r="A13" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="70"/>
       <c r="C13" s="0" t="s">
         <v>104</v>
       </c>
@@ -12286,14 +12273,14 @@
         <v>105</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B14" s="72"/>
+      <c r="A14" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B14" s="70"/>
       <c r="C14" s="0" t="s">
         <v>106</v>
       </c>
@@ -12301,14 +12288,14 @@
         <v>107</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B15" s="72"/>
+      <c r="A15" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B15" s="70"/>
       <c r="C15" s="0" t="s">
         <v>108</v>
       </c>
@@ -12316,14 +12303,14 @@
         <v>109</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B16" s="72"/>
+      <c r="A16" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B16" s="70"/>
       <c r="C16" s="0" t="s">
         <v>110</v>
       </c>
@@ -12331,14 +12318,14 @@
         <v>111</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="72" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B17" s="72"/>
+      <c r="A17" s="70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B17" s="70"/>
       <c r="C17" s="0" t="s">
         <v>112</v>
       </c>
@@ -12346,14 +12333,14 @@
         <v>113</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B18" s="72"/>
+      <c r="A18" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B18" s="70"/>
       <c r="C18" s="0" t="s">
         <v>114</v>
       </c>
@@ -12361,14 +12348,14 @@
         <v>115</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B19" s="72"/>
+      <c r="A19" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B19" s="70"/>
       <c r="C19" s="0" t="s">
         <v>116</v>
       </c>
@@ -12376,14 +12363,14 @@
         <v>117</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B20" s="72"/>
+      <c r="A20" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="70"/>
       <c r="C20" s="0" t="s">
         <v>118</v>
       </c>
@@ -12391,14 +12378,14 @@
         <v>119</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B21" s="72"/>
+      <c r="A21" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B21" s="70"/>
       <c r="C21" s="0" t="s">
         <v>120</v>
       </c>
@@ -12406,14 +12393,14 @@
         <v>121</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B22" s="72"/>
+      <c r="A22" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="70"/>
       <c r="C22" s="0" t="s">
         <v>122</v>
       </c>
@@ -12421,14 +12408,14 @@
         <v>123</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B23" s="72"/>
+      <c r="A23" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="70"/>
       <c r="C23" s="0" t="s">
         <v>124</v>
       </c>
@@ -12436,14 +12423,14 @@
         <v>125</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B24" s="72"/>
+      <c r="A24" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B24" s="70"/>
       <c r="C24" s="0" t="s">
         <v>126</v>
       </c>
@@ -12451,14 +12438,14 @@
         <v>127</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B25" s="72"/>
+      <c r="A25" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B25" s="70"/>
       <c r="C25" s="0" t="s">
         <v>128</v>
       </c>
@@ -12466,14 +12453,14 @@
         <v>129</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B26" s="72"/>
+      <c r="A26" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B26" s="70"/>
       <c r="C26" s="0" t="s">
         <v>130</v>
       </c>
@@ -12481,14 +12468,14 @@
         <v>131</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B27" s="72"/>
+      <c r="A27" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B27" s="70"/>
       <c r="C27" s="0" t="s">
         <v>132</v>
       </c>
@@ -12496,14 +12483,14 @@
         <v>133</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B28" s="72"/>
+      <c r="A28" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B28" s="70"/>
       <c r="C28" s="0" t="s">
         <v>134</v>
       </c>
@@ -12511,14 +12498,14 @@
         <v>135</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B29" s="72"/>
+      <c r="A29" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B29" s="70"/>
       <c r="C29" s="0" t="s">
         <v>136</v>
       </c>
@@ -12526,14 +12513,14 @@
         <v>137</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B30" s="72"/>
+      <c r="A30" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B30" s="70"/>
       <c r="C30" s="0" t="s">
         <v>138</v>
       </c>
@@ -12541,14 +12528,14 @@
         <v>139</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B31" s="72"/>
+      <c r="A31" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B31" s="70"/>
       <c r="C31" s="0" t="s">
         <v>140</v>
       </c>
@@ -12556,14 +12543,14 @@
         <v>141</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B32" s="72"/>
+      <c r="A32" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B32" s="70"/>
       <c r="C32" s="0" t="s">
         <v>142</v>
       </c>
@@ -12571,14 +12558,14 @@
         <v>143</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B33" s="72"/>
+      <c r="A33" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B33" s="70"/>
       <c r="C33" s="0" t="s">
         <v>144</v>
       </c>
@@ -12586,14 +12573,14 @@
         <v>145</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B34" s="72"/>
+      <c r="A34" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B34" s="70"/>
       <c r="C34" s="0" t="s">
         <v>146</v>
       </c>
@@ -12601,14 +12588,14 @@
         <v>147</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B35" s="72"/>
+      <c r="A35" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B35" s="70"/>
       <c r="C35" s="0" t="s">
         <v>148</v>
       </c>
@@ -12616,14 +12603,14 @@
         <v>149</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B36" s="72"/>
+      <c r="A36" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B36" s="70"/>
       <c r="C36" s="0" t="s">
         <v>150</v>
       </c>
@@ -12631,14 +12618,14 @@
         <v>151</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B37" s="72"/>
+      <c r="A37" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B37" s="70"/>
       <c r="C37" s="0" t="s">
         <v>152</v>
       </c>
@@ -12646,14 +12633,14 @@
         <v>153</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B38" s="72"/>
+      <c r="A38" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B38" s="70"/>
       <c r="C38" s="0" t="s">
         <v>154</v>
       </c>
@@ -12661,14 +12648,14 @@
         <v>155</v>
       </c>
       <c r="H38" s="23"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B39" s="72"/>
+      <c r="A39" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B39" s="70"/>
       <c r="C39" s="0" t="s">
         <v>156</v>
       </c>
@@ -12676,14 +12663,14 @@
         <v>157</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B40" s="72"/>
+      <c r="A40" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B40" s="70"/>
       <c r="C40" s="0" t="s">
         <v>158</v>
       </c>
@@ -12691,14 +12678,14 @@
         <v>159</v>
       </c>
       <c r="H40" s="23"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="72" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B41" s="72"/>
+      <c r="A41" s="70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B41" s="70"/>
       <c r="C41" s="0" t="s">
         <v>160</v>
       </c>
@@ -12706,14 +12693,14 @@
         <v>161</v>
       </c>
       <c r="H41" s="23"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B42" s="72"/>
+      <c r="A42" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B42" s="70"/>
       <c r="C42" s="0" t="s">
         <v>162</v>
       </c>
@@ -12721,14 +12708,14 @@
         <v>163</v>
       </c>
       <c r="H42" s="23"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B43" s="72"/>
+      <c r="A43" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B43" s="70"/>
       <c r="C43" s="0" t="s">
         <v>164</v>
       </c>
@@ -12736,42 +12723,42 @@
         <v>165</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B44" s="72"/>
+      <c r="A44" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B44" s="70"/>
       <c r="C44" s="0" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="72" t="s">
-        <v>990</v>
-      </c>
-      <c r="B45" s="72"/>
+      <c r="A45" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="B45" s="70"/>
       <c r="C45" s="0" t="s">
         <v>168</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B46" s="72"/>
+      <c r="A46" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B46" s="70"/>
       <c r="C46" s="0" t="s">
         <v>170</v>
       </c>
@@ -12779,14 +12766,14 @@
         <v>171</v>
       </c>
       <c r="H46" s="23"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B47" s="72"/>
+      <c r="A47" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B47" s="70"/>
       <c r="C47" s="0" t="s">
         <v>172</v>
       </c>
@@ -12794,14 +12781,14 @@
         <v>173</v>
       </c>
       <c r="H47" s="23"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B48" s="72"/>
+      <c r="A48" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B48" s="70"/>
       <c r="C48" s="0" t="s">
         <v>174</v>
       </c>
@@ -12809,14 +12796,14 @@
         <v>175</v>
       </c>
       <c r="H48" s="23"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B49" s="72"/>
+      <c r="A49" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B49" s="70"/>
       <c r="C49" s="0" t="s">
         <v>176</v>
       </c>
@@ -12824,14 +12811,14 @@
         <v>177</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B50" s="72"/>
+      <c r="A50" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B50" s="70"/>
       <c r="C50" s="0" t="s">
         <v>178</v>
       </c>
@@ -12839,14 +12826,14 @@
         <v>179</v>
       </c>
       <c r="H50" s="23"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B51" s="72"/>
+      <c r="A51" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B51" s="70"/>
       <c r="C51" s="0" t="s">
         <v>180</v>
       </c>
@@ -12854,14 +12841,14 @@
         <v>181</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B52" s="72"/>
+      <c r="A52" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B52" s="70"/>
       <c r="C52" s="0" t="s">
         <v>182</v>
       </c>
@@ -12869,14 +12856,14 @@
         <v>183</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B53" s="72"/>
+      <c r="A53" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B53" s="70"/>
       <c r="C53" s="0" t="s">
         <v>184</v>
       </c>
@@ -12884,14 +12871,14 @@
         <v>185</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B54" s="72"/>
+      <c r="A54" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B54" s="70"/>
       <c r="C54" s="0" t="s">
         <v>186</v>
       </c>
@@ -12899,14 +12886,14 @@
         <v>187</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B55" s="72"/>
+      <c r="A55" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B55" s="70"/>
       <c r="C55" s="0" t="s">
         <v>188</v>
       </c>
@@ -12914,14 +12901,14 @@
         <v>189</v>
       </c>
       <c r="H55" s="23"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B56" s="72"/>
+      <c r="A56" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B56" s="70"/>
       <c r="C56" s="0" t="s">
         <v>190</v>
       </c>
@@ -12929,14 +12916,14 @@
         <v>191</v>
       </c>
       <c r="H56" s="23"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B57" s="72"/>
+      <c r="A57" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B57" s="70"/>
       <c r="C57" s="0" t="s">
         <v>192</v>
       </c>
@@ -12944,14 +12931,14 @@
         <v>193</v>
       </c>
       <c r="H57" s="23"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B58" s="72"/>
+      <c r="A58" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B58" s="70"/>
       <c r="C58" s="0" t="s">
         <v>194</v>
       </c>
@@ -12959,14 +12946,14 @@
         <v>195</v>
       </c>
       <c r="H58" s="23"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B59" s="72"/>
+      <c r="A59" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B59" s="70"/>
       <c r="C59" s="0" t="s">
         <v>196</v>
       </c>
@@ -12974,14 +12961,14 @@
         <v>197</v>
       </c>
       <c r="H59" s="23"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B60" s="72"/>
+      <c r="A60" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B60" s="70"/>
       <c r="C60" s="0" t="s">
         <v>198</v>
       </c>
@@ -12989,14 +12976,14 @@
         <v>199</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B61" s="72"/>
+      <c r="A61" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B61" s="70"/>
       <c r="C61" s="0" t="s">
         <v>200</v>
       </c>
@@ -13004,14 +12991,14 @@
         <v>201</v>
       </c>
       <c r="H61" s="23"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B62" s="72"/>
+      <c r="A62" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B62" s="70"/>
       <c r="C62" s="0" t="s">
         <v>202</v>
       </c>
@@ -13019,14 +13006,14 @@
         <v>203</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B63" s="72"/>
+      <c r="A63" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B63" s="70"/>
       <c r="C63" s="0" t="s">
         <v>204</v>
       </c>
@@ -13034,14 +13021,14 @@
         <v>205</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B64" s="72"/>
+      <c r="A64" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B64" s="70"/>
       <c r="C64" s="0" t="s">
         <v>206</v>
       </c>
@@ -13049,14 +13036,14 @@
         <v>207</v>
       </c>
       <c r="H64" s="23"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B65" s="72"/>
+      <c r="A65" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B65" s="70"/>
       <c r="C65" s="0" t="s">
         <v>208</v>
       </c>
@@ -13064,14 +13051,14 @@
         <v>209</v>
       </c>
       <c r="H65" s="23"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B66" s="72"/>
+      <c r="A66" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B66" s="70"/>
       <c r="C66" s="0" t="s">
         <v>210</v>
       </c>
@@ -13079,14 +13066,14 @@
         <v>211</v>
       </c>
       <c r="H66" s="23"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="71"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B67" s="72"/>
+      <c r="A67" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B67" s="70"/>
       <c r="C67" s="0" t="s">
         <v>212</v>
       </c>
@@ -13094,14 +13081,14 @@
         <v>213</v>
       </c>
       <c r="H67" s="23"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B68" s="72"/>
+      <c r="A68" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B68" s="70"/>
       <c r="C68" s="0" t="s">
         <v>214</v>
       </c>
@@ -13109,14 +13096,14 @@
         <v>215</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B69" s="72"/>
+      <c r="A69" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B69" s="70"/>
       <c r="C69" s="0" t="s">
         <v>216</v>
       </c>
@@ -13124,14 +13111,14 @@
         <v>217</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B70" s="72"/>
+      <c r="A70" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B70" s="70"/>
       <c r="C70" s="0" t="s">
         <v>218</v>
       </c>
@@ -13139,14 +13126,14 @@
         <v>219</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B71" s="72"/>
+      <c r="A71" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B71" s="70"/>
       <c r="C71" s="0" t="s">
         <v>220</v>
       </c>
@@ -13154,14 +13141,14 @@
         <v>221</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B72" s="72"/>
+      <c r="A72" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B72" s="70"/>
       <c r="C72" s="0" t="s">
         <v>222</v>
       </c>
@@ -13169,14 +13156,14 @@
         <v>223</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B73" s="72"/>
+      <c r="A73" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B73" s="70"/>
       <c r="C73" s="0" t="s">
         <v>224</v>
       </c>
@@ -13184,14 +13171,14 @@
         <v>225</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B74" s="72"/>
+      <c r="A74" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B74" s="70"/>
       <c r="C74" s="0" t="s">
         <v>226</v>
       </c>
@@ -13199,14 +13186,14 @@
         <v>227</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B75" s="72"/>
+      <c r="A75" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B75" s="70"/>
       <c r="C75" s="0" t="s">
         <v>228</v>
       </c>
@@ -13214,14 +13201,14 @@
         <v>229</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B76" s="72"/>
+      <c r="A76" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B76" s="70"/>
       <c r="C76" s="0" t="s">
         <v>230</v>
       </c>
@@ -13229,14 +13216,14 @@
         <v>231</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B77" s="72"/>
+      <c r="A77" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B77" s="70"/>
       <c r="C77" s="0" t="s">
         <v>232</v>
       </c>
@@ -13244,14 +13231,14 @@
         <v>233</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B78" s="74"/>
+      <c r="A78" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B78" s="72"/>
       <c r="C78" s="0" t="s">
         <v>234</v>
       </c>
@@ -13259,14 +13246,14 @@
         <v>235</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="73"/>
-      <c r="J78" s="73"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B79" s="72"/>
+      <c r="A79" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B79" s="70"/>
       <c r="C79" s="0" t="s">
         <v>236</v>
       </c>
@@ -13274,14 +13261,14 @@
         <v>237</v>
       </c>
       <c r="H79" s="23"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B80" s="72"/>
+      <c r="A80" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B80" s="70"/>
       <c r="C80" s="0" t="s">
         <v>238</v>
       </c>
@@ -13289,14 +13276,14 @@
         <v>239</v>
       </c>
       <c r="H80" s="23"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B81" s="72"/>
+      <c r="A81" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B81" s="70"/>
       <c r="C81" s="0" t="s">
         <v>240</v>
       </c>
@@ -13304,14 +13291,14 @@
         <v>241</v>
       </c>
       <c r="H81" s="23"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B82" s="72"/>
+      <c r="A82" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B82" s="70"/>
       <c r="C82" s="0" t="s">
         <v>242</v>
       </c>
@@ -13319,14 +13306,14 @@
         <v>243</v>
       </c>
       <c r="H82" s="23"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B83" s="72"/>
+      <c r="A83" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B83" s="70"/>
       <c r="C83" s="0" t="s">
         <v>244</v>
       </c>
@@ -13334,14 +13321,14 @@
         <v>245</v>
       </c>
       <c r="H83" s="23"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B84" s="72"/>
+      <c r="A84" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B84" s="70"/>
       <c r="C84" s="0" t="s">
         <v>246</v>
       </c>
@@ -13349,14 +13336,14 @@
         <v>247</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B85" s="72"/>
+      <c r="A85" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B85" s="70"/>
       <c r="C85" s="0" t="s">
         <v>248</v>
       </c>
@@ -13364,14 +13351,14 @@
         <v>249</v>
       </c>
       <c r="H85" s="23"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B86" s="72"/>
+      <c r="A86" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B86" s="70"/>
       <c r="C86" s="0" t="s">
         <v>250</v>
       </c>
@@ -13379,14 +13366,14 @@
         <v>251</v>
       </c>
       <c r="H86" s="23"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B87" s="72"/>
+      <c r="A87" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B87" s="70"/>
       <c r="C87" s="0" t="s">
         <v>252</v>
       </c>
@@ -13394,14 +13381,14 @@
         <v>253</v>
       </c>
       <c r="H87" s="23"/>
-      <c r="I87" s="73"/>
-      <c r="J87" s="73"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B88" s="72"/>
+      <c r="A88" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B88" s="70"/>
       <c r="C88" s="0" t="s">
         <v>254</v>
       </c>
@@ -13409,14 +13396,14 @@
         <v>255</v>
       </c>
       <c r="H88" s="23"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B89" s="74"/>
+      <c r="A89" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B89" s="72"/>
       <c r="C89" s="0" t="s">
         <v>256</v>
       </c>
@@ -13424,14 +13411,14 @@
         <v>257</v>
       </c>
       <c r="H89" s="23"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B90" s="72"/>
+      <c r="A90" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B90" s="70"/>
       <c r="C90" s="0" t="s">
         <v>258</v>
       </c>
@@ -13439,14 +13426,14 @@
         <v>259</v>
       </c>
       <c r="H90" s="23"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B91" s="72"/>
+      <c r="A91" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B91" s="70"/>
       <c r="C91" s="0" t="s">
         <v>260</v>
       </c>
@@ -13454,14 +13441,14 @@
         <v>261</v>
       </c>
       <c r="H91" s="23"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B92" s="72"/>
+      <c r="A92" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B92" s="70"/>
       <c r="C92" s="0" t="s">
         <v>262</v>
       </c>
@@ -13469,14 +13456,14 @@
         <v>263</v>
       </c>
       <c r="H92" s="23"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="73"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B93" s="72"/>
+      <c r="A93" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B93" s="70"/>
       <c r="C93" s="0" t="s">
         <v>264</v>
       </c>
@@ -13484,14 +13471,14 @@
         <v>265</v>
       </c>
       <c r="H93" s="23"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B94" s="72"/>
+      <c r="A94" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B94" s="70"/>
       <c r="C94" s="0" t="s">
         <v>266</v>
       </c>
@@ -13499,14 +13486,14 @@
         <v>267</v>
       </c>
       <c r="H94" s="23"/>
-      <c r="I94" s="73"/>
-      <c r="J94" s="73"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B95" s="72"/>
+      <c r="A95" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B95" s="70"/>
       <c r="C95" s="0" t="s">
         <v>268</v>
       </c>
@@ -13514,14 +13501,14 @@
         <v>269</v>
       </c>
       <c r="H95" s="23"/>
-      <c r="I95" s="73"/>
-      <c r="J95" s="73"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B96" s="72"/>
+      <c r="A96" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B96" s="70"/>
       <c r="C96" s="0" t="s">
         <v>270</v>
       </c>
@@ -13529,14 +13516,14 @@
         <v>271</v>
       </c>
       <c r="H96" s="23"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="73"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="72" t="s">
-        <v>990</v>
-      </c>
-      <c r="B97" s="72"/>
+      <c r="A97" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="B97" s="70"/>
       <c r="C97" s="0" t="s">
         <v>272</v>
       </c>
@@ -13544,14 +13531,14 @@
         <v>273</v>
       </c>
       <c r="H97" s="23"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="73"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="72" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B98" s="72"/>
+      <c r="A98" s="70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B98" s="70"/>
       <c r="C98" s="0" t="s">
         <v>274</v>
       </c>
@@ -13559,14 +13546,14 @@
         <v>275</v>
       </c>
       <c r="H98" s="23"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B99" s="72"/>
+      <c r="A99" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B99" s="70"/>
       <c r="C99" s="0" t="s">
         <v>276</v>
       </c>
@@ -13574,14 +13561,14 @@
         <v>277</v>
       </c>
       <c r="H99" s="23"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B100" s="72"/>
+      <c r="A100" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B100" s="70"/>
       <c r="C100" s="0" t="s">
         <v>278</v>
       </c>
@@ -13589,14 +13576,14 @@
         <v>279</v>
       </c>
       <c r="H100" s="23"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="73"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B101" s="72"/>
+      <c r="A101" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B101" s="70"/>
       <c r="C101" s="0" t="s">
         <v>280</v>
       </c>
@@ -13604,14 +13591,14 @@
         <v>281</v>
       </c>
       <c r="H101" s="23"/>
-      <c r="I101" s="73"/>
-      <c r="J101" s="73"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B102" s="72"/>
+      <c r="A102" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B102" s="70"/>
       <c r="C102" s="0" t="s">
         <v>282</v>
       </c>
@@ -13619,14 +13606,14 @@
         <v>283</v>
       </c>
       <c r="H102" s="23"/>
-      <c r="I102" s="73"/>
-      <c r="J102" s="73"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B103" s="72"/>
+      <c r="A103" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B103" s="70"/>
       <c r="C103" s="0" t="s">
         <v>284</v>
       </c>
@@ -13634,14 +13621,14 @@
         <v>285</v>
       </c>
       <c r="H103" s="23"/>
-      <c r="I103" s="73"/>
-      <c r="J103" s="73"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B104" s="72"/>
+      <c r="A104" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B104" s="70"/>
       <c r="C104" s="0" t="s">
         <v>286</v>
       </c>
@@ -13649,14 +13636,14 @@
         <v>287</v>
       </c>
       <c r="H104" s="23"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="73"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="72" t="s">
+      <c r="A105" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="72"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="0" t="s">
         <v>288</v>
       </c>
@@ -13664,14 +13651,14 @@
         <v>289</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="73"/>
-      <c r="J105" s="73"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B106" s="72"/>
+      <c r="A106" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B106" s="70"/>
       <c r="C106" s="0" t="s">
         <v>290</v>
       </c>
@@ -13679,14 +13666,14 @@
         <v>291</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B107" s="72"/>
+      <c r="A107" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B107" s="70"/>
       <c r="C107" s="0" t="s">
         <v>292</v>
       </c>
@@ -13694,14 +13681,14 @@
         <v>293</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B108" s="72"/>
+      <c r="A108" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B108" s="70"/>
       <c r="C108" s="0" t="s">
         <v>294</v>
       </c>
@@ -13709,14 +13696,14 @@
         <v>295</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B109" s="72"/>
+      <c r="A109" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B109" s="70"/>
       <c r="C109" s="0" t="s">
         <v>296</v>
       </c>
@@ -13724,14 +13711,14 @@
         <v>297</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="73"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B110" s="72"/>
+      <c r="A110" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B110" s="70"/>
       <c r="C110" s="0" t="s">
         <v>298</v>
       </c>
@@ -13739,14 +13726,14 @@
         <v>299</v>
       </c>
       <c r="H110" s="23"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="73"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B111" s="72"/>
+      <c r="A111" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B111" s="70"/>
       <c r="C111" s="0" t="s">
         <v>300</v>
       </c>
@@ -13754,14 +13741,14 @@
         <v>301</v>
       </c>
       <c r="H111" s="23"/>
-      <c r="I111" s="73"/>
-      <c r="J111" s="73"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="71"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B112" s="72"/>
+      <c r="A112" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B112" s="70"/>
       <c r="C112" s="0" t="s">
         <v>302</v>
       </c>
@@ -13769,14 +13756,14 @@
         <v>303</v>
       </c>
       <c r="H112" s="23"/>
-      <c r="I112" s="73"/>
-      <c r="J112" s="73"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B113" s="72"/>
+      <c r="A113" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B113" s="70"/>
       <c r="C113" s="0" t="s">
         <v>304</v>
       </c>
@@ -13784,14 +13771,14 @@
         <v>305</v>
       </c>
       <c r="H113" s="23"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="73"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B114" s="72"/>
+      <c r="A114" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B114" s="70"/>
       <c r="C114" s="0" t="s">
         <v>306</v>
       </c>
@@ -13799,14 +13786,14 @@
         <v>307</v>
       </c>
       <c r="H114" s="23"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="73"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B115" s="72"/>
+      <c r="A115" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B115" s="70"/>
       <c r="C115" s="0" t="s">
         <v>308</v>
       </c>
@@ -13814,14 +13801,14 @@
         <v>309</v>
       </c>
       <c r="H115" s="23"/>
-      <c r="I115" s="73"/>
-      <c r="J115" s="73"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="72" t="s">
+      <c r="A116" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="B116" s="72"/>
+      <c r="B116" s="70"/>
       <c r="C116" s="0" t="s">
         <v>310</v>
       </c>
@@ -13829,14 +13816,14 @@
         <v>311</v>
       </c>
       <c r="H116" s="23"/>
-      <c r="I116" s="73"/>
-      <c r="J116" s="73"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B117" s="72"/>
+      <c r="A117" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B117" s="70"/>
       <c r="C117" s="0" t="s">
         <v>312</v>
       </c>
@@ -13844,14 +13831,14 @@
         <v>313</v>
       </c>
       <c r="H117" s="23"/>
-      <c r="I117" s="73"/>
-      <c r="J117" s="73"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B118" s="72"/>
+      <c r="A118" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B118" s="70"/>
       <c r="C118" s="0" t="s">
         <v>314</v>
       </c>
@@ -13859,14 +13846,14 @@
         <v>315</v>
       </c>
       <c r="H118" s="23"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="73"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B119" s="72"/>
+      <c r="A119" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B119" s="70"/>
       <c r="C119" s="0" t="s">
         <v>316</v>
       </c>
@@ -13874,14 +13861,14 @@
         <v>317</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="73"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B120" s="72"/>
+      <c r="A120" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B120" s="70"/>
       <c r="C120" s="0" t="s">
         <v>318</v>
       </c>
@@ -13889,14 +13876,14 @@
         <v>319</v>
       </c>
       <c r="H120" s="23"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B121" s="72"/>
+      <c r="A121" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B121" s="70"/>
       <c r="C121" s="0" t="s">
         <v>320</v>
       </c>
@@ -13904,14 +13891,14 @@
         <v>321</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="73"/>
+      <c r="I121" s="71"/>
+      <c r="J121" s="71"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B122" s="72"/>
+      <c r="A122" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B122" s="70"/>
       <c r="C122" s="0" t="s">
         <v>322</v>
       </c>
@@ -13919,14 +13906,14 @@
         <v>323</v>
       </c>
       <c r="H122" s="23"/>
-      <c r="I122" s="73"/>
-      <c r="J122" s="73"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B123" s="72"/>
+      <c r="A123" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B123" s="70"/>
       <c r="C123" s="0" t="s">
         <v>324</v>
       </c>
@@ -13934,14 +13921,14 @@
         <v>325</v>
       </c>
       <c r="H123" s="23"/>
-      <c r="I123" s="73"/>
-      <c r="J123" s="73"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B124" s="72"/>
+      <c r="A124" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B124" s="70"/>
       <c r="C124" s="0" t="s">
         <v>326</v>
       </c>
@@ -13949,14 +13936,14 @@
         <v>327</v>
       </c>
       <c r="H124" s="23"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="73"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B125" s="72"/>
+      <c r="A125" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B125" s="70"/>
       <c r="C125" s="0" t="s">
         <v>328</v>
       </c>
@@ -13964,14 +13951,14 @@
         <v>329</v>
       </c>
       <c r="H125" s="23"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="73"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="71"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B126" s="72"/>
+      <c r="A126" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B126" s="70"/>
       <c r="C126" s="0" t="s">
         <v>330</v>
       </c>
@@ -13979,14 +13966,14 @@
         <v>331</v>
       </c>
       <c r="H126" s="23"/>
-      <c r="I126" s="73"/>
-      <c r="J126" s="73"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B127" s="72"/>
+      <c r="A127" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B127" s="70"/>
       <c r="C127" s="0" t="s">
         <v>332</v>
       </c>
@@ -13994,14 +13981,14 @@
         <v>333</v>
       </c>
       <c r="H127" s="23"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B128" s="72"/>
+      <c r="A128" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B128" s="70"/>
       <c r="C128" s="0" t="s">
         <v>334</v>
       </c>
@@ -14009,14 +13996,14 @@
         <v>335</v>
       </c>
       <c r="H128" s="23"/>
-      <c r="I128" s="73"/>
-      <c r="J128" s="73"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B129" s="72"/>
+      <c r="A129" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B129" s="70"/>
       <c r="C129" s="0" t="s">
         <v>336</v>
       </c>
@@ -14024,14 +14011,14 @@
         <v>337</v>
       </c>
       <c r="H129" s="23"/>
-      <c r="I129" s="73"/>
-      <c r="J129" s="73"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B130" s="72"/>
+      <c r="A130" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B130" s="70"/>
       <c r="C130" s="0" t="s">
         <v>338</v>
       </c>
@@ -14039,14 +14026,14 @@
         <v>339</v>
       </c>
       <c r="H130" s="23"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="73"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B131" s="72"/>
+      <c r="A131" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B131" s="70"/>
       <c r="C131" s="0" t="s">
         <v>340</v>
       </c>
@@ -14054,14 +14041,14 @@
         <v>341</v>
       </c>
       <c r="H131" s="23"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="73"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B132" s="72"/>
+      <c r="A132" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B132" s="70"/>
       <c r="C132" s="0" t="s">
         <v>342</v>
       </c>
@@ -14069,14 +14056,14 @@
         <v>343</v>
       </c>
       <c r="H132" s="23"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="73"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B133" s="72"/>
+      <c r="A133" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B133" s="70"/>
       <c r="C133" s="0" t="s">
         <v>344</v>
       </c>
@@ -14084,14 +14071,14 @@
         <v>345</v>
       </c>
       <c r="H133" s="23"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B134" s="72"/>
+      <c r="A134" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B134" s="70"/>
       <c r="C134" s="0" t="s">
         <v>346</v>
       </c>
@@ -14099,14 +14086,14 @@
         <v>347</v>
       </c>
       <c r="H134" s="23"/>
-      <c r="I134" s="73"/>
-      <c r="J134" s="73"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B135" s="72"/>
+      <c r="A135" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B135" s="70"/>
       <c r="C135" s="0" t="s">
         <v>348</v>
       </c>
@@ -14114,14 +14101,14 @@
         <v>349</v>
       </c>
       <c r="H135" s="23"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="73"/>
+      <c r="I135" s="71"/>
+      <c r="J135" s="71"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="72" t="s">
-        <v>990</v>
-      </c>
-      <c r="B136" s="72"/>
+      <c r="A136" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="B136" s="70"/>
       <c r="C136" s="0" t="s">
         <v>350</v>
       </c>
@@ -14129,14 +14116,14 @@
         <v>351</v>
       </c>
       <c r="H136" s="23"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="73"/>
+      <c r="I136" s="71"/>
+      <c r="J136" s="71"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B137" s="72"/>
+      <c r="A137" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B137" s="70"/>
       <c r="C137" s="0" t="s">
         <v>352</v>
       </c>
@@ -14144,14 +14131,14 @@
         <v>353</v>
       </c>
       <c r="H137" s="23"/>
-      <c r="I137" s="73"/>
-      <c r="J137" s="73"/>
+      <c r="I137" s="71"/>
+      <c r="J137" s="71"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B138" s="72"/>
+      <c r="A138" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B138" s="70"/>
       <c r="C138" s="0" t="s">
         <v>354</v>
       </c>
@@ -14159,14 +14146,14 @@
         <v>355</v>
       </c>
       <c r="H138" s="23"/>
-      <c r="I138" s="73"/>
-      <c r="J138" s="73"/>
+      <c r="I138" s="71"/>
+      <c r="J138" s="71"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B139" s="72"/>
+      <c r="A139" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B139" s="70"/>
       <c r="C139" s="0" t="s">
         <v>356</v>
       </c>
@@ -14174,14 +14161,14 @@
         <v>357</v>
       </c>
       <c r="H139" s="23"/>
-      <c r="I139" s="73"/>
-      <c r="J139" s="73"/>
+      <c r="I139" s="71"/>
+      <c r="J139" s="71"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B140" s="72"/>
+      <c r="A140" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B140" s="70"/>
       <c r="C140" s="0" t="s">
         <v>358</v>
       </c>
@@ -14189,14 +14176,14 @@
         <v>359</v>
       </c>
       <c r="H140" s="23"/>
-      <c r="I140" s="73"/>
-      <c r="J140" s="73"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="71"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B141" s="72"/>
+      <c r="A141" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B141" s="70"/>
       <c r="C141" s="0" t="s">
         <v>360</v>
       </c>
@@ -14204,14 +14191,14 @@
         <v>361</v>
       </c>
       <c r="H141" s="23"/>
-      <c r="I141" s="73"/>
-      <c r="J141" s="73"/>
+      <c r="I141" s="71"/>
+      <c r="J141" s="71"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B142" s="72"/>
+      <c r="A142" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B142" s="70"/>
       <c r="C142" s="0" t="s">
         <v>362</v>
       </c>
@@ -14219,14 +14206,14 @@
         <v>363</v>
       </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="73"/>
-      <c r="J142" s="73"/>
+      <c r="I142" s="71"/>
+      <c r="J142" s="71"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B143" s="72"/>
+      <c r="A143" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B143" s="70"/>
       <c r="C143" s="0" t="s">
         <v>364</v>
       </c>
@@ -14234,14 +14221,14 @@
         <v>365</v>
       </c>
       <c r="H143" s="23"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="73"/>
+      <c r="I143" s="71"/>
+      <c r="J143" s="71"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B144" s="72"/>
+      <c r="A144" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B144" s="70"/>
       <c r="C144" s="0" t="s">
         <v>366</v>
       </c>
@@ -14249,14 +14236,14 @@
         <v>367</v>
       </c>
       <c r="H144" s="23"/>
-      <c r="I144" s="73"/>
-      <c r="J144" s="73"/>
+      <c r="I144" s="71"/>
+      <c r="J144" s="71"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B145" s="72"/>
+      <c r="A145" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B145" s="70"/>
       <c r="C145" s="0" t="s">
         <v>368</v>
       </c>
@@ -14264,14 +14251,14 @@
         <v>369</v>
       </c>
       <c r="H145" s="23"/>
-      <c r="I145" s="73"/>
-      <c r="J145" s="73"/>
+      <c r="I145" s="71"/>
+      <c r="J145" s="71"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B146" s="72"/>
+      <c r="A146" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B146" s="70"/>
       <c r="C146" s="0" t="s">
         <v>370</v>
       </c>
@@ -14279,14 +14266,14 @@
         <v>371</v>
       </c>
       <c r="H146" s="23"/>
-      <c r="I146" s="73"/>
-      <c r="J146" s="73"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B147" s="72"/>
+      <c r="A147" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B147" s="70"/>
       <c r="C147" s="0" t="s">
         <v>372</v>
       </c>
@@ -14294,14 +14281,14 @@
         <v>373</v>
       </c>
       <c r="H147" s="23"/>
-      <c r="I147" s="73"/>
-      <c r="J147" s="73"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B148" s="72"/>
+      <c r="A148" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B148" s="70"/>
       <c r="C148" s="0" t="s">
         <v>374</v>
       </c>
@@ -14309,14 +14296,14 @@
         <v>375</v>
       </c>
       <c r="H148" s="23"/>
-      <c r="I148" s="73"/>
-      <c r="J148" s="73"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="71"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B149" s="72"/>
+      <c r="A149" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B149" s="70"/>
       <c r="C149" s="0" t="s">
         <v>376</v>
       </c>
@@ -14324,14 +14311,14 @@
         <v>377</v>
       </c>
       <c r="H149" s="23"/>
-      <c r="I149" s="73"/>
-      <c r="J149" s="73"/>
+      <c r="I149" s="71"/>
+      <c r="J149" s="71"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B150" s="72"/>
+      <c r="A150" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B150" s="70"/>
       <c r="C150" s="0" t="s">
         <v>378</v>
       </c>
@@ -14339,14 +14326,14 @@
         <v>379</v>
       </c>
       <c r="H150" s="23"/>
-      <c r="I150" s="73"/>
-      <c r="J150" s="73"/>
+      <c r="I150" s="71"/>
+      <c r="J150" s="71"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B151" s="72"/>
+      <c r="A151" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B151" s="70"/>
       <c r="C151" s="0" t="s">
         <v>380</v>
       </c>
@@ -14354,14 +14341,14 @@
         <v>381</v>
       </c>
       <c r="H151" s="23"/>
-      <c r="I151" s="73"/>
-      <c r="J151" s="73"/>
+      <c r="I151" s="71"/>
+      <c r="J151" s="71"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B152" s="72"/>
+      <c r="A152" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B152" s="70"/>
       <c r="C152" s="0" t="s">
         <v>382</v>
       </c>
@@ -14369,14 +14356,14 @@
         <v>383</v>
       </c>
       <c r="H152" s="23"/>
-      <c r="I152" s="73"/>
-      <c r="J152" s="73"/>
+      <c r="I152" s="71"/>
+      <c r="J152" s="71"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B153" s="72"/>
+      <c r="A153" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B153" s="70"/>
       <c r="C153" s="0" t="s">
         <v>384</v>
       </c>
@@ -14384,14 +14371,14 @@
         <v>385</v>
       </c>
       <c r="H153" s="23"/>
-      <c r="I153" s="73"/>
-      <c r="J153" s="73"/>
+      <c r="I153" s="71"/>
+      <c r="J153" s="71"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B154" s="72"/>
+      <c r="A154" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B154" s="70"/>
       <c r="C154" s="0" t="s">
         <v>386</v>
       </c>
@@ -14399,14 +14386,14 @@
         <v>387</v>
       </c>
       <c r="H154" s="23"/>
-      <c r="I154" s="73"/>
-      <c r="J154" s="73"/>
+      <c r="I154" s="71"/>
+      <c r="J154" s="71"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B155" s="72"/>
+      <c r="A155" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B155" s="70"/>
       <c r="C155" s="0" t="s">
         <v>388</v>
       </c>
@@ -14414,14 +14401,14 @@
         <v>389</v>
       </c>
       <c r="H155" s="23"/>
-      <c r="I155" s="73"/>
-      <c r="J155" s="73"/>
+      <c r="I155" s="71"/>
+      <c r="J155" s="71"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B156" s="72"/>
+      <c r="A156" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B156" s="70"/>
       <c r="C156" s="0" t="s">
         <v>390</v>
       </c>
@@ -14429,14 +14416,14 @@
         <v>391</v>
       </c>
       <c r="H156" s="23"/>
-      <c r="I156" s="73"/>
-      <c r="J156" s="73"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="71"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B157" s="72"/>
+      <c r="A157" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B157" s="70"/>
       <c r="C157" s="0" t="s">
         <v>392</v>
       </c>
@@ -14444,14 +14431,14 @@
         <v>393</v>
       </c>
       <c r="H157" s="23"/>
-      <c r="I157" s="73"/>
-      <c r="J157" s="73"/>
+      <c r="I157" s="71"/>
+      <c r="J157" s="71"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B158" s="72"/>
+      <c r="A158" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B158" s="70"/>
       <c r="C158" s="0" t="s">
         <v>394</v>
       </c>
@@ -14459,14 +14446,14 @@
         <v>395</v>
       </c>
       <c r="H158" s="23"/>
-      <c r="I158" s="73"/>
-      <c r="J158" s="73"/>
+      <c r="I158" s="71"/>
+      <c r="J158" s="71"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B159" s="72"/>
+      <c r="A159" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B159" s="70"/>
       <c r="C159" s="0" t="s">
         <v>396</v>
       </c>
@@ -14474,14 +14461,14 @@
         <v>397</v>
       </c>
       <c r="H159" s="23"/>
-      <c r="I159" s="73"/>
-      <c r="J159" s="73"/>
+      <c r="I159" s="71"/>
+      <c r="J159" s="71"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B160" s="72"/>
+      <c r="A160" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B160" s="70"/>
       <c r="C160" s="0" t="s">
         <v>398</v>
       </c>
@@ -14489,14 +14476,14 @@
         <v>399</v>
       </c>
       <c r="H160" s="23"/>
-      <c r="I160" s="73"/>
-      <c r="J160" s="73"/>
+      <c r="I160" s="71"/>
+      <c r="J160" s="71"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B161" s="72"/>
+      <c r="A161" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B161" s="70"/>
       <c r="C161" s="0" t="s">
         <v>400</v>
       </c>
@@ -14504,14 +14491,14 @@
         <v>401</v>
       </c>
       <c r="H161" s="23"/>
-      <c r="I161" s="73"/>
-      <c r="J161" s="73"/>
+      <c r="I161" s="71"/>
+      <c r="J161" s="71"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B162" s="72"/>
+      <c r="A162" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B162" s="70"/>
       <c r="C162" s="0" t="s">
         <v>402</v>
       </c>
@@ -14519,14 +14506,14 @@
         <v>403</v>
       </c>
       <c r="H162" s="23"/>
-      <c r="I162" s="73"/>
-      <c r="J162" s="73"/>
+      <c r="I162" s="71"/>
+      <c r="J162" s="71"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B163" s="72"/>
+      <c r="A163" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B163" s="70"/>
       <c r="C163" s="0" t="s">
         <v>404</v>
       </c>
@@ -14534,14 +14521,14 @@
         <v>405</v>
       </c>
       <c r="H163" s="23"/>
-      <c r="I163" s="73"/>
-      <c r="J163" s="73"/>
+      <c r="I163" s="71"/>
+      <c r="J163" s="71"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B164" s="72"/>
+      <c r="A164" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B164" s="70"/>
       <c r="C164" s="0" t="s">
         <v>406</v>
       </c>
@@ -14549,14 +14536,14 @@
         <v>407</v>
       </c>
       <c r="H164" s="23"/>
-      <c r="I164" s="73"/>
-      <c r="J164" s="73"/>
+      <c r="I164" s="71"/>
+      <c r="J164" s="71"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B165" s="72"/>
+      <c r="A165" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B165" s="70"/>
       <c r="C165" s="0" t="s">
         <v>408</v>
       </c>
@@ -14564,14 +14551,14 @@
         <v>409</v>
       </c>
       <c r="H165" s="23"/>
-      <c r="I165" s="73"/>
-      <c r="J165" s="73"/>
+      <c r="I165" s="71"/>
+      <c r="J165" s="71"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B166" s="72"/>
+      <c r="A166" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B166" s="70"/>
       <c r="C166" s="0" t="s">
         <v>410</v>
       </c>
@@ -14579,14 +14566,14 @@
         <v>411</v>
       </c>
       <c r="H166" s="23"/>
-      <c r="I166" s="73"/>
-      <c r="J166" s="73"/>
+      <c r="I166" s="71"/>
+      <c r="J166" s="71"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B167" s="72"/>
+      <c r="A167" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B167" s="70"/>
       <c r="C167" s="0" t="s">
         <v>412</v>
       </c>
@@ -14594,14 +14581,14 @@
         <v>413</v>
       </c>
       <c r="H167" s="23"/>
-      <c r="I167" s="73"/>
-      <c r="J167" s="73"/>
+      <c r="I167" s="71"/>
+      <c r="J167" s="71"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B168" s="72"/>
+      <c r="A168" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B168" s="70"/>
       <c r="C168" s="0" t="s">
         <v>414</v>
       </c>
@@ -14609,14 +14596,14 @@
         <v>415</v>
       </c>
       <c r="H168" s="23"/>
-      <c r="I168" s="73"/>
-      <c r="J168" s="73"/>
+      <c r="I168" s="71"/>
+      <c r="J168" s="71"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B169" s="72"/>
+      <c r="A169" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B169" s="70"/>
       <c r="C169" s="0" t="s">
         <v>416</v>
       </c>
@@ -14624,14 +14611,14 @@
         <v>417</v>
       </c>
       <c r="H169" s="23"/>
-      <c r="I169" s="73"/>
-      <c r="J169" s="73"/>
+      <c r="I169" s="71"/>
+      <c r="J169" s="71"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B170" s="72"/>
+      <c r="A170" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B170" s="70"/>
       <c r="C170" s="0" t="s">
         <v>418</v>
       </c>
@@ -14639,14 +14626,14 @@
         <v>419</v>
       </c>
       <c r="H170" s="23"/>
-      <c r="I170" s="73"/>
-      <c r="J170" s="73"/>
+      <c r="I170" s="71"/>
+      <c r="J170" s="71"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="72" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B171" s="72"/>
+      <c r="A171" s="70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B171" s="70"/>
       <c r="C171" s="0" t="s">
         <v>420</v>
       </c>
@@ -14654,14 +14641,14 @@
         <v>421</v>
       </c>
       <c r="H171" s="23"/>
-      <c r="I171" s="73"/>
-      <c r="J171" s="73"/>
+      <c r="I171" s="71"/>
+      <c r="J171" s="71"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B172" s="72"/>
+      <c r="A172" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B172" s="70"/>
       <c r="C172" s="0" t="s">
         <v>422</v>
       </c>
@@ -14669,14 +14656,14 @@
         <v>423</v>
       </c>
       <c r="H172" s="23"/>
-      <c r="I172" s="73"/>
-      <c r="J172" s="73"/>
+      <c r="I172" s="71"/>
+      <c r="J172" s="71"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B173" s="72"/>
+      <c r="A173" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B173" s="70"/>
       <c r="C173" s="0" t="s">
         <v>424</v>
       </c>
@@ -14684,14 +14671,14 @@
         <v>425</v>
       </c>
       <c r="H173" s="23"/>
-      <c r="I173" s="73"/>
-      <c r="J173" s="73"/>
+      <c r="I173" s="71"/>
+      <c r="J173" s="71"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B174" s="72"/>
+      <c r="A174" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B174" s="70"/>
       <c r="C174" s="0" t="s">
         <v>426</v>
       </c>
@@ -14699,14 +14686,14 @@
         <v>427</v>
       </c>
       <c r="H174" s="23"/>
-      <c r="I174" s="73"/>
-      <c r="J174" s="73"/>
+      <c r="I174" s="71"/>
+      <c r="J174" s="71"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B175" s="72"/>
+      <c r="A175" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B175" s="70"/>
       <c r="C175" s="0" t="s">
         <v>428</v>
       </c>
@@ -14714,14 +14701,14 @@
         <v>429</v>
       </c>
       <c r="H175" s="23"/>
-      <c r="I175" s="73"/>
-      <c r="J175" s="73"/>
+      <c r="I175" s="71"/>
+      <c r="J175" s="71"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B176" s="72"/>
+      <c r="A176" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B176" s="70"/>
       <c r="C176" s="0" t="s">
         <v>430</v>
       </c>
@@ -14729,14 +14716,14 @@
         <v>431</v>
       </c>
       <c r="H176" s="23"/>
-      <c r="I176" s="73"/>
-      <c r="J176" s="73"/>
+      <c r="I176" s="71"/>
+      <c r="J176" s="71"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B177" s="72"/>
+      <c r="A177" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B177" s="70"/>
       <c r="C177" s="0" t="s">
         <v>432</v>
       </c>
@@ -14744,14 +14731,14 @@
         <v>433</v>
       </c>
       <c r="H177" s="23"/>
-      <c r="I177" s="73"/>
-      <c r="J177" s="73"/>
+      <c r="I177" s="71"/>
+      <c r="J177" s="71"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B178" s="72"/>
+      <c r="A178" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B178" s="70"/>
       <c r="C178" s="0" t="s">
         <v>434</v>
       </c>
@@ -14759,14 +14746,14 @@
         <v>435</v>
       </c>
       <c r="H178" s="23"/>
-      <c r="I178" s="73"/>
-      <c r="J178" s="73"/>
+      <c r="I178" s="71"/>
+      <c r="J178" s="71"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B179" s="72"/>
+      <c r="A179" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B179" s="70"/>
       <c r="C179" s="0" t="s">
         <v>436</v>
       </c>
@@ -14774,14 +14761,14 @@
         <v>437</v>
       </c>
       <c r="H179" s="23"/>
-      <c r="I179" s="73"/>
-      <c r="J179" s="73"/>
+      <c r="I179" s="71"/>
+      <c r="J179" s="71"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B180" s="72"/>
+      <c r="A180" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B180" s="70"/>
       <c r="C180" s="0" t="s">
         <v>438</v>
       </c>
@@ -14789,14 +14776,14 @@
         <v>439</v>
       </c>
       <c r="H180" s="23"/>
-      <c r="I180" s="73"/>
-      <c r="J180" s="73"/>
+      <c r="I180" s="71"/>
+      <c r="J180" s="71"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B181" s="72"/>
+      <c r="A181" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B181" s="70"/>
       <c r="C181" s="0" t="s">
         <v>440</v>
       </c>
@@ -14804,14 +14791,14 @@
         <v>441</v>
       </c>
       <c r="H181" s="23"/>
-      <c r="I181" s="73"/>
-      <c r="J181" s="73"/>
+      <c r="I181" s="71"/>
+      <c r="J181" s="71"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B182" s="72"/>
+      <c r="A182" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B182" s="70"/>
       <c r="C182" s="0" t="s">
         <v>442</v>
       </c>
@@ -14819,14 +14806,14 @@
         <v>443</v>
       </c>
       <c r="H182" s="23"/>
-      <c r="I182" s="73"/>
-      <c r="J182" s="73"/>
+      <c r="I182" s="71"/>
+      <c r="J182" s="71"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B183" s="72"/>
+      <c r="A183" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B183" s="70"/>
       <c r="C183" s="0" t="s">
         <v>444</v>
       </c>
@@ -14834,14 +14821,14 @@
         <v>445</v>
       </c>
       <c r="H183" s="23"/>
-      <c r="I183" s="73"/>
-      <c r="J183" s="73"/>
+      <c r="I183" s="71"/>
+      <c r="J183" s="71"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B184" s="72"/>
+      <c r="A184" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B184" s="70"/>
       <c r="C184" s="0" t="s">
         <v>446</v>
       </c>
@@ -14849,14 +14836,14 @@
         <v>447</v>
       </c>
       <c r="H184" s="23"/>
-      <c r="I184" s="73"/>
-      <c r="J184" s="73"/>
+      <c r="I184" s="71"/>
+      <c r="J184" s="71"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B185" s="72"/>
+      <c r="A185" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B185" s="70"/>
       <c r="C185" s="0" t="s">
         <v>448</v>
       </c>
@@ -14864,14 +14851,14 @@
         <v>449</v>
       </c>
       <c r="H185" s="23"/>
-      <c r="I185" s="73"/>
-      <c r="J185" s="73"/>
+      <c r="I185" s="71"/>
+      <c r="J185" s="71"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B186" s="72"/>
+      <c r="A186" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B186" s="70"/>
       <c r="C186" s="0" t="s">
         <v>450</v>
       </c>
@@ -14879,14 +14866,14 @@
         <v>451</v>
       </c>
       <c r="H186" s="23"/>
-      <c r="I186" s="73"/>
-      <c r="J186" s="73"/>
+      <c r="I186" s="71"/>
+      <c r="J186" s="71"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B187" s="72"/>
+      <c r="A187" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B187" s="70"/>
       <c r="C187" s="0" t="s">
         <v>452</v>
       </c>
@@ -14894,14 +14881,14 @@
         <v>453</v>
       </c>
       <c r="H187" s="23"/>
-      <c r="I187" s="73"/>
-      <c r="J187" s="73"/>
+      <c r="I187" s="71"/>
+      <c r="J187" s="71"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B188" s="72"/>
+      <c r="A188" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B188" s="70"/>
       <c r="C188" s="0" t="s">
         <v>454</v>
       </c>
@@ -14909,14 +14896,14 @@
         <v>455</v>
       </c>
       <c r="H188" s="23"/>
-      <c r="I188" s="73"/>
-      <c r="J188" s="73"/>
+      <c r="I188" s="71"/>
+      <c r="J188" s="71"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B189" s="72"/>
+      <c r="A189" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B189" s="70"/>
       <c r="C189" s="0" t="s">
         <v>456</v>
       </c>
@@ -14924,14 +14911,14 @@
         <v>457</v>
       </c>
       <c r="H189" s="23"/>
-      <c r="I189" s="73"/>
-      <c r="J189" s="73"/>
+      <c r="I189" s="71"/>
+      <c r="J189" s="71"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B190" s="72"/>
+      <c r="A190" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B190" s="70"/>
       <c r="C190" s="0" t="s">
         <v>458</v>
       </c>
@@ -14939,14 +14926,14 @@
         <v>459</v>
       </c>
       <c r="H190" s="23"/>
-      <c r="I190" s="73"/>
-      <c r="J190" s="73"/>
+      <c r="I190" s="71"/>
+      <c r="J190" s="71"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B191" s="72"/>
+      <c r="A191" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B191" s="70"/>
       <c r="C191" s="0" t="s">
         <v>460</v>
       </c>
@@ -14954,14 +14941,14 @@
         <v>461</v>
       </c>
       <c r="H191" s="23"/>
-      <c r="I191" s="73"/>
-      <c r="J191" s="73"/>
+      <c r="I191" s="71"/>
+      <c r="J191" s="71"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B192" s="72"/>
+      <c r="A192" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B192" s="70"/>
       <c r="C192" s="0" t="s">
         <v>462</v>
       </c>
@@ -14969,14 +14956,14 @@
         <v>463</v>
       </c>
       <c r="H192" s="23"/>
-      <c r="I192" s="73"/>
-      <c r="J192" s="73"/>
+      <c r="I192" s="71"/>
+      <c r="J192" s="71"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B193" s="72"/>
+      <c r="A193" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B193" s="70"/>
       <c r="C193" s="0" t="s">
         <v>464</v>
       </c>
@@ -14984,14 +14971,14 @@
         <v>465</v>
       </c>
       <c r="H193" s="23"/>
-      <c r="I193" s="73"/>
-      <c r="J193" s="73"/>
+      <c r="I193" s="71"/>
+      <c r="J193" s="71"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B194" s="72"/>
+      <c r="A194" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B194" s="70"/>
       <c r="C194" s="0" t="s">
         <v>466</v>
       </c>
@@ -14999,14 +14986,14 @@
         <v>467</v>
       </c>
       <c r="H194" s="23"/>
-      <c r="I194" s="73"/>
-      <c r="J194" s="73"/>
+      <c r="I194" s="71"/>
+      <c r="J194" s="71"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B195" s="72"/>
+      <c r="A195" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B195" s="70"/>
       <c r="C195" s="0" t="s">
         <v>468</v>
       </c>
@@ -15014,14 +15001,14 @@
         <v>469</v>
       </c>
       <c r="H195" s="23"/>
-      <c r="I195" s="73"/>
-      <c r="J195" s="73"/>
+      <c r="I195" s="71"/>
+      <c r="J195" s="71"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B196" s="72"/>
+      <c r="A196" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B196" s="70"/>
       <c r="C196" s="0" t="s">
         <v>470</v>
       </c>
@@ -15029,14 +15016,14 @@
         <v>471</v>
       </c>
       <c r="H196" s="23"/>
-      <c r="I196" s="73"/>
-      <c r="J196" s="73"/>
+      <c r="I196" s="71"/>
+      <c r="J196" s="71"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B197" s="72"/>
+      <c r="A197" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B197" s="70"/>
       <c r="C197" s="0" t="s">
         <v>472</v>
       </c>
@@ -15044,14 +15031,14 @@
         <v>473</v>
       </c>
       <c r="H197" s="23"/>
-      <c r="I197" s="73"/>
-      <c r="J197" s="73"/>
+      <c r="I197" s="71"/>
+      <c r="J197" s="71"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B198" s="72"/>
+      <c r="A198" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B198" s="70"/>
       <c r="C198" s="0" t="s">
         <v>474</v>
       </c>
@@ -15059,14 +15046,14 @@
         <v>475</v>
       </c>
       <c r="H198" s="23"/>
-      <c r="I198" s="73"/>
-      <c r="J198" s="73"/>
+      <c r="I198" s="71"/>
+      <c r="J198" s="71"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B199" s="72"/>
+      <c r="A199" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B199" s="70"/>
       <c r="C199" s="0" t="s">
         <v>476</v>
       </c>
@@ -15074,14 +15061,14 @@
         <v>477</v>
       </c>
       <c r="H199" s="23"/>
-      <c r="I199" s="73"/>
-      <c r="J199" s="73"/>
+      <c r="I199" s="71"/>
+      <c r="J199" s="71"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B200" s="72"/>
+      <c r="A200" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B200" s="70"/>
       <c r="C200" s="0" t="s">
         <v>478</v>
       </c>
@@ -15089,14 +15076,14 @@
         <v>479</v>
       </c>
       <c r="H200" s="23"/>
-      <c r="I200" s="73"/>
-      <c r="J200" s="73"/>
+      <c r="I200" s="71"/>
+      <c r="J200" s="71"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B201" s="72"/>
+      <c r="A201" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B201" s="70"/>
       <c r="C201" s="0" t="s">
         <v>480</v>
       </c>
@@ -15104,14 +15091,14 @@
         <v>481</v>
       </c>
       <c r="H201" s="23"/>
-      <c r="I201" s="73"/>
-      <c r="J201" s="73"/>
+      <c r="I201" s="71"/>
+      <c r="J201" s="71"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B202" s="72"/>
+      <c r="A202" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B202" s="70"/>
       <c r="C202" s="0" t="s">
         <v>482</v>
       </c>
@@ -15119,14 +15106,14 @@
         <v>483</v>
       </c>
       <c r="H202" s="23"/>
-      <c r="I202" s="73"/>
-      <c r="J202" s="73"/>
+      <c r="I202" s="71"/>
+      <c r="J202" s="71"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B203" s="72"/>
+      <c r="A203" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B203" s="70"/>
       <c r="C203" s="0" t="s">
         <v>484</v>
       </c>
@@ -15134,14 +15121,14 @@
         <v>485</v>
       </c>
       <c r="H203" s="23"/>
-      <c r="I203" s="73"/>
-      <c r="J203" s="73"/>
+      <c r="I203" s="71"/>
+      <c r="J203" s="71"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="72" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B204" s="72"/>
+      <c r="A204" s="70" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B204" s="70"/>
       <c r="C204" s="0" t="s">
         <v>486</v>
       </c>
@@ -15149,14 +15136,14 @@
         <v>487</v>
       </c>
       <c r="H204" s="23"/>
-      <c r="I204" s="73"/>
-      <c r="J204" s="73"/>
+      <c r="I204" s="71"/>
+      <c r="J204" s="71"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B205" s="72"/>
+      <c r="A205" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B205" s="70"/>
       <c r="C205" s="0" t="s">
         <v>488</v>
       </c>
@@ -15164,14 +15151,14 @@
         <v>489</v>
       </c>
       <c r="H205" s="23"/>
-      <c r="I205" s="73"/>
-      <c r="J205" s="73"/>
+      <c r="I205" s="71"/>
+      <c r="J205" s="71"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B206" s="72"/>
+      <c r="A206" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B206" s="70"/>
       <c r="C206" s="0" t="s">
         <v>490</v>
       </c>
@@ -15179,14 +15166,14 @@
         <v>491</v>
       </c>
       <c r="H206" s="23"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="73"/>
+      <c r="I206" s="71"/>
+      <c r="J206" s="71"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B207" s="72"/>
+      <c r="A207" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B207" s="70"/>
       <c r="C207" s="0" t="s">
         <v>492</v>
       </c>
@@ -15194,14 +15181,14 @@
         <v>493</v>
       </c>
       <c r="H207" s="23"/>
-      <c r="I207" s="73"/>
-      <c r="J207" s="73"/>
+      <c r="I207" s="71"/>
+      <c r="J207" s="71"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B208" s="72"/>
+      <c r="A208" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B208" s="70"/>
       <c r="C208" s="0" t="s">
         <v>494</v>
       </c>
@@ -15209,14 +15196,14 @@
         <v>495</v>
       </c>
       <c r="H208" s="23"/>
-      <c r="I208" s="73"/>
-      <c r="J208" s="73"/>
+      <c r="I208" s="71"/>
+      <c r="J208" s="71"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B209" s="72"/>
+      <c r="A209" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B209" s="70"/>
       <c r="C209" s="0" t="s">
         <v>496</v>
       </c>
@@ -15224,14 +15211,14 @@
         <v>497</v>
       </c>
       <c r="H209" s="23"/>
-      <c r="I209" s="73"/>
-      <c r="J209" s="73"/>
+      <c r="I209" s="71"/>
+      <c r="J209" s="71"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B210" s="72"/>
+      <c r="A210" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B210" s="70"/>
       <c r="C210" s="0" t="s">
         <v>498</v>
       </c>
@@ -15239,14 +15226,14 @@
         <v>499</v>
       </c>
       <c r="H210" s="23"/>
-      <c r="I210" s="73"/>
-      <c r="J210" s="73"/>
+      <c r="I210" s="71"/>
+      <c r="J210" s="71"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="B211" s="72"/>
+      <c r="A211" s="70" t="s">
+        <v>991</v>
+      </c>
+      <c r="B211" s="70"/>
       <c r="C211" s="0" t="s">
         <v>500</v>
       </c>
@@ -15254,14 +15241,14 @@
         <v>501</v>
       </c>
       <c r="H211" s="23"/>
-      <c r="I211" s="73"/>
-      <c r="J211" s="73"/>
+      <c r="I211" s="71"/>
+      <c r="J211" s="71"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B212" s="72"/>
+      <c r="A212" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B212" s="70"/>
       <c r="C212" s="0" t="s">
         <v>502</v>
       </c>
@@ -15269,14 +15256,14 @@
         <v>503</v>
       </c>
       <c r="H212" s="23"/>
-      <c r="I212" s="73"/>
-      <c r="J212" s="73"/>
+      <c r="I212" s="71"/>
+      <c r="J212" s="71"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B213" s="72"/>
+      <c r="A213" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B213" s="70"/>
       <c r="C213" s="0" t="s">
         <v>504</v>
       </c>
@@ -15284,14 +15271,14 @@
         <v>505</v>
       </c>
       <c r="H213" s="23"/>
-      <c r="I213" s="73"/>
-      <c r="J213" s="73"/>
+      <c r="I213" s="71"/>
+      <c r="J213" s="71"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B214" s="72"/>
+      <c r="A214" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B214" s="70"/>
       <c r="C214" s="0" t="s">
         <v>506</v>
       </c>
@@ -15299,14 +15286,14 @@
         <v>507</v>
       </c>
       <c r="H214" s="23"/>
-      <c r="I214" s="73"/>
-      <c r="J214" s="73"/>
+      <c r="I214" s="71"/>
+      <c r="J214" s="71"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B215" s="72"/>
+      <c r="A215" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B215" s="70"/>
       <c r="C215" s="0" t="s">
         <v>508</v>
       </c>
@@ -15314,14 +15301,14 @@
         <v>509</v>
       </c>
       <c r="H215" s="23"/>
-      <c r="I215" s="73"/>
-      <c r="J215" s="73"/>
+      <c r="I215" s="71"/>
+      <c r="J215" s="71"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B216" s="72"/>
+      <c r="A216" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B216" s="70"/>
       <c r="C216" s="0" t="s">
         <v>510</v>
       </c>
@@ -15329,14 +15316,14 @@
         <v>511</v>
       </c>
       <c r="H216" s="23"/>
-      <c r="I216" s="73"/>
-      <c r="J216" s="73"/>
+      <c r="I216" s="71"/>
+      <c r="J216" s="71"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B217" s="72"/>
+      <c r="A217" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B217" s="70"/>
       <c r="C217" s="0" t="s">
         <v>512</v>
       </c>
@@ -15344,14 +15331,14 @@
         <v>513</v>
       </c>
       <c r="H217" s="23"/>
-      <c r="I217" s="73"/>
-      <c r="J217" s="73"/>
+      <c r="I217" s="71"/>
+      <c r="J217" s="71"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B218" s="72"/>
+      <c r="A218" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B218" s="70"/>
       <c r="C218" s="0" t="s">
         <v>514</v>
       </c>
@@ -15359,14 +15346,14 @@
         <v>515</v>
       </c>
       <c r="H218" s="23"/>
-      <c r="I218" s="73"/>
-      <c r="J218" s="73"/>
+      <c r="I218" s="71"/>
+      <c r="J218" s="71"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B219" s="72"/>
+      <c r="A219" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B219" s="70"/>
       <c r="C219" s="0" t="s">
         <v>516</v>
       </c>
@@ -15374,14 +15361,14 @@
         <v>517</v>
       </c>
       <c r="H219" s="23"/>
-      <c r="I219" s="73"/>
-      <c r="J219" s="73"/>
+      <c r="I219" s="71"/>
+      <c r="J219" s="71"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B220" s="72"/>
+      <c r="A220" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B220" s="70"/>
       <c r="C220" s="0" t="s">
         <v>518</v>
       </c>
@@ -15389,14 +15376,14 @@
         <v>519</v>
       </c>
       <c r="H220" s="23"/>
-      <c r="I220" s="73"/>
-      <c r="J220" s="73"/>
+      <c r="I220" s="71"/>
+      <c r="J220" s="71"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B221" s="72"/>
+      <c r="A221" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B221" s="70"/>
       <c r="C221" s="0" t="s">
         <v>520</v>
       </c>
@@ -15404,14 +15391,14 @@
         <v>521</v>
       </c>
       <c r="H221" s="23"/>
-      <c r="I221" s="73"/>
-      <c r="J221" s="73"/>
+      <c r="I221" s="71"/>
+      <c r="J221" s="71"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B222" s="72"/>
+      <c r="A222" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B222" s="70"/>
       <c r="C222" s="0" t="s">
         <v>522</v>
       </c>
@@ -15419,14 +15406,14 @@
         <v>523</v>
       </c>
       <c r="H222" s="23"/>
-      <c r="I222" s="73"/>
-      <c r="J222" s="73"/>
+      <c r="I222" s="71"/>
+      <c r="J222" s="71"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B223" s="72"/>
+      <c r="A223" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B223" s="70"/>
       <c r="C223" s="0" t="s">
         <v>524</v>
       </c>
@@ -15434,14 +15421,14 @@
         <v>525</v>
       </c>
       <c r="H223" s="23"/>
-      <c r="I223" s="73"/>
-      <c r="J223" s="73"/>
+      <c r="I223" s="71"/>
+      <c r="J223" s="71"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B224" s="72"/>
+      <c r="A224" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B224" s="70"/>
       <c r="C224" s="0" t="s">
         <v>526</v>
       </c>
@@ -15449,14 +15436,14 @@
         <v>527</v>
       </c>
       <c r="H224" s="23"/>
-      <c r="I224" s="73"/>
-      <c r="J224" s="73"/>
+      <c r="I224" s="71"/>
+      <c r="J224" s="71"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="B225" s="72"/>
+      <c r="A225" s="70" t="s">
+        <v>997</v>
+      </c>
+      <c r="B225" s="70"/>
       <c r="C225" s="0" t="s">
         <v>528</v>
       </c>
@@ -15464,14 +15451,14 @@
         <v>529</v>
       </c>
       <c r="H225" s="23"/>
-      <c r="I225" s="73"/>
-      <c r="J225" s="73"/>
+      <c r="I225" s="71"/>
+      <c r="J225" s="71"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B226" s="72"/>
+      <c r="A226" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B226" s="70"/>
       <c r="C226" s="0" t="s">
         <v>530</v>
       </c>
@@ -15479,14 +15466,14 @@
         <v>531</v>
       </c>
       <c r="H226" s="23"/>
-      <c r="I226" s="73"/>
-      <c r="J226" s="73"/>
+      <c r="I226" s="71"/>
+      <c r="J226" s="71"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B227" s="72"/>
+      <c r="A227" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B227" s="70"/>
       <c r="C227" s="0" t="s">
         <v>532</v>
       </c>
@@ -15494,14 +15481,14 @@
         <v>533</v>
       </c>
       <c r="H227" s="23"/>
-      <c r="I227" s="73"/>
-      <c r="J227" s="73"/>
+      <c r="I227" s="71"/>
+      <c r="J227" s="71"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="72" t="s">
-        <v>990</v>
-      </c>
-      <c r="B228" s="72"/>
+      <c r="A228" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="B228" s="70"/>
       <c r="C228" s="0" t="s">
         <v>534</v>
       </c>
@@ -15509,14 +15496,14 @@
         <v>535</v>
       </c>
       <c r="H228" s="23"/>
-      <c r="I228" s="73"/>
-      <c r="J228" s="73"/>
+      <c r="I228" s="71"/>
+      <c r="J228" s="71"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B229" s="72"/>
+      <c r="A229" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B229" s="70"/>
       <c r="C229" s="0" t="s">
         <v>536</v>
       </c>
@@ -15524,14 +15511,14 @@
         <v>537</v>
       </c>
       <c r="H229" s="23"/>
-      <c r="I229" s="73"/>
-      <c r="J229" s="73"/>
+      <c r="I229" s="71"/>
+      <c r="J229" s="71"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="72" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B230" s="72"/>
+      <c r="A230" s="70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B230" s="70"/>
       <c r="C230" s="0" t="s">
         <v>538</v>
       </c>
@@ -15539,14 +15526,14 @@
         <v>539</v>
       </c>
       <c r="H230" s="23"/>
-      <c r="I230" s="73"/>
-      <c r="J230" s="73"/>
+      <c r="I230" s="71"/>
+      <c r="J230" s="71"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B231" s="72"/>
+      <c r="A231" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B231" s="70"/>
       <c r="C231" s="0" t="s">
         <v>540</v>
       </c>
@@ -15554,14 +15541,14 @@
         <v>541</v>
       </c>
       <c r="H231" s="23"/>
-      <c r="I231" s="73"/>
-      <c r="J231" s="73"/>
+      <c r="I231" s="71"/>
+      <c r="J231" s="71"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="72" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B232" s="72"/>
+      <c r="A232" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B232" s="70"/>
       <c r="C232" s="0" t="s">
         <v>542</v>
       </c>
@@ -15569,14 +15556,14 @@
         <v>543</v>
       </c>
       <c r="H232" s="23"/>
-      <c r="I232" s="73"/>
-      <c r="J232" s="73"/>
+      <c r="I232" s="71"/>
+      <c r="J232" s="71"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B233" s="72"/>
+      <c r="A233" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B233" s="70"/>
       <c r="C233" s="0" t="s">
         <v>544</v>
       </c>
@@ -15584,14 +15571,14 @@
         <v>545</v>
       </c>
       <c r="H233" s="23"/>
-      <c r="I233" s="73"/>
-      <c r="J233" s="73"/>
+      <c r="I233" s="71"/>
+      <c r="J233" s="71"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="72" t="s">
+      <c r="A234" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="B234" s="72"/>
+      <c r="B234" s="70"/>
       <c r="C234" s="0" t="s">
         <v>546</v>
       </c>
@@ -15599,14 +15586,14 @@
         <v>547</v>
       </c>
       <c r="H234" s="23"/>
-      <c r="I234" s="73"/>
-      <c r="J234" s="73"/>
+      <c r="I234" s="71"/>
+      <c r="J234" s="71"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B235" s="72"/>
+      <c r="A235" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B235" s="70"/>
       <c r="C235" s="0" t="s">
         <v>548</v>
       </c>
@@ -15614,14 +15601,14 @@
         <v>549</v>
       </c>
       <c r="H235" s="23"/>
-      <c r="I235" s="73"/>
-      <c r="J235" s="73"/>
+      <c r="I235" s="71"/>
+      <c r="J235" s="71"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B236" s="72"/>
+      <c r="A236" s="70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B236" s="70"/>
       <c r="C236" s="0" t="s">
         <v>550</v>
       </c>
@@ -15629,14 +15616,14 @@
         <v>551</v>
       </c>
       <c r="H236" s="23"/>
-      <c r="I236" s="73"/>
-      <c r="J236" s="73"/>
+      <c r="I236" s="71"/>
+      <c r="J236" s="71"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B237" s="72"/>
+      <c r="A237" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B237" s="70"/>
       <c r="C237" s="0" t="s">
         <v>552</v>
       </c>
@@ -15644,14 +15631,14 @@
         <v>553</v>
       </c>
       <c r="H237" s="23"/>
-      <c r="I237" s="73"/>
-      <c r="J237" s="73"/>
+      <c r="I237" s="71"/>
+      <c r="J237" s="71"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B238" s="72"/>
+      <c r="A238" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B238" s="70"/>
       <c r="C238" s="0" t="s">
         <v>554</v>
       </c>
@@ -15659,14 +15646,14 @@
         <v>555</v>
       </c>
       <c r="H238" s="23"/>
-      <c r="I238" s="73"/>
-      <c r="J238" s="73"/>
+      <c r="I238" s="71"/>
+      <c r="J238" s="71"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B239" s="72"/>
+      <c r="A239" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B239" s="70"/>
       <c r="C239" s="0" t="s">
         <v>556</v>
       </c>
@@ -15674,14 +15661,14 @@
         <v>557</v>
       </c>
       <c r="H239" s="23"/>
-      <c r="I239" s="73"/>
-      <c r="J239" s="75"/>
+      <c r="I239" s="71"/>
+      <c r="J239" s="73"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="B240" s="72"/>
+      <c r="A240" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B240" s="70"/>
       <c r="C240" s="0" t="s">
         <v>558</v>
       </c>
@@ -15689,12 +15676,12 @@
         <v>559</v>
       </c>
       <c r="H240" s="23"/>
-      <c r="I240" s="73"/>
-      <c r="J240" s="75"/>
+      <c r="I240" s="71"/>
+      <c r="J240" s="73"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="72" t="s">
-        <v>1004</v>
+      <c r="A241" s="70" t="s">
+        <v>1003</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>560</v>
@@ -15703,12 +15690,12 @@
         <v>561</v>
       </c>
       <c r="H241" s="23"/>
-      <c r="I241" s="73"/>
-      <c r="J241" s="75"/>
+      <c r="I241" s="71"/>
+      <c r="J241" s="73"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="72" t="s">
-        <v>1004</v>
+      <c r="A242" s="70" t="s">
+        <v>1003</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>562</v>
@@ -15717,12 +15704,12 @@
         <v>563</v>
       </c>
       <c r="H242" s="23"/>
-      <c r="I242" s="73"/>
-      <c r="J242" s="75"/>
+      <c r="I242" s="71"/>
+      <c r="J242" s="73"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="72" t="s">
-        <v>1004</v>
+      <c r="A243" s="70" t="s">
+        <v>1003</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>564</v>
@@ -15731,12 +15718,12 @@
         <v>565</v>
       </c>
       <c r="H243" s="23"/>
-      <c r="I243" s="73"/>
-      <c r="J243" s="75"/>
+      <c r="I243" s="71"/>
+      <c r="J243" s="73"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="72" t="s">
-        <v>1004</v>
+      <c r="A244" s="70" t="s">
+        <v>1003</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>566</v>
@@ -15745,12 +15732,12 @@
         <v>567</v>
       </c>
       <c r="H244" s="23"/>
-      <c r="I244" s="73"/>
-      <c r="J244" s="75"/>
+      <c r="I244" s="71"/>
+      <c r="J244" s="73"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="72" t="s">
-        <v>998</v>
+      <c r="A245" s="70" t="s">
+        <v>997</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>568</v>
@@ -15759,12 +15746,12 @@
         <v>569</v>
       </c>
       <c r="H245" s="23"/>
-      <c r="I245" s="73"/>
-      <c r="J245" s="75"/>
+      <c r="I245" s="71"/>
+      <c r="J245" s="73"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="72" t="s">
-        <v>1001</v>
+      <c r="A246" s="70" t="s">
+        <v>1000</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>570</v>
@@ -15773,12 +15760,12 @@
         <v>571</v>
       </c>
       <c r="H246" s="23"/>
-      <c r="I246" s="73"/>
-      <c r="J246" s="75"/>
+      <c r="I246" s="71"/>
+      <c r="J246" s="73"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="72" t="s">
-        <v>1001</v>
+      <c r="A247" s="70" t="s">
+        <v>1000</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>572</v>
@@ -15787,12 +15774,12 @@
         <v>573</v>
       </c>
       <c r="H247" s="23"/>
-      <c r="I247" s="73"/>
-      <c r="J247" s="75"/>
+      <c r="I247" s="71"/>
+      <c r="J247" s="73"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="72" t="s">
-        <v>1001</v>
+      <c r="A248" s="70" t="s">
+        <v>1000</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>574</v>
@@ -15801,8 +15788,8 @@
         <v>575</v>
       </c>
       <c r="H248" s="23"/>
-      <c r="I248" s="73"/>
-      <c r="J248" s="75"/>
+      <c r="I248" s="71"/>
+      <c r="J248" s="73"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
